--- a/static/需求/字段(11.0).xlsx
+++ b/static/需求/字段(11.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="月报数据项" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="640">
   <si>
     <t>序号</t>
   </si>
@@ -2093,17 +2093,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#\ ?/?"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2171,6 +2171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
@@ -2185,109 +2193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2301,6 +2214,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2316,9 +2250,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2332,34 +2319,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2396,7 +2376,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2408,55 +2496,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,61 +2544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2535,48 +2557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2697,17 +2677,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2722,16 +2702,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2754,17 +2734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2780,17 +2749,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2802,10 +2782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2814,133 +2794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3053,15 +3033,15 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3080,13 +3060,13 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3095,7 +3075,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3164,7 +3144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3174,7 +3154,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3203,6 +3183,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3212,55 +3201,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -3279,7 +3259,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6638,8 +6618,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6653,188 +6633,188 @@
     <col min="8" max="8" width="23.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="91" customFormat="1" spans="1:8">
-      <c r="A1" s="91" t="s">
+    <row r="1" s="95" customFormat="1" spans="1:8">
+      <c r="A1" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="95" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="99" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="99" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="99" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="99" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="99" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="93"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="65" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="93"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="65" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:6">
-      <c r="A10" s="93"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="93"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="101" t="s">
         <v>233</v>
       </c>
@@ -6852,7 +6832,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" s="93"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="104" t="s">
         <v>237</v>
       </c>
@@ -6870,304 +6850,304 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="65" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
-      <c r="A15" s="93"/>
-      <c r="B15" s="98" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="65" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
-      <c r="A16" s="93"/>
-      <c r="B16" s="98" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="65" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
-      <c r="A17" s="93"/>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="65" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
-      <c r="A18" s="93"/>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="65" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="93"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="65" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
-      <c r="A20" s="93"/>
-      <c r="B20" s="98" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="65" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
-      <c r="A21" s="93"/>
-      <c r="B21" s="98" t="s">
+      <c r="A21" s="97"/>
+      <c r="B21" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="65" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:6">
-      <c r="A22" s="93"/>
-      <c r="B22" s="98" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="65" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
-      <c r="A23" s="93"/>
-      <c r="B23" s="98" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="100" t="s">
+      <c r="F23" s="65" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
-      <c r="A24" s="93"/>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="97"/>
+      <c r="B24" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="65" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:6">
-      <c r="A25" s="93"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="97"/>
+      <c r="B25" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="65" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:6">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94" t="s">
+      <c r="A26" s="97"/>
+      <c r="B26" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="99" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:6">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94" t="s">
+      <c r="A27" s="97"/>
+      <c r="B27" s="98" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="96" t="s">
+      <c r="F27" s="99" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:6">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="99" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:6">
-      <c r="A29" s="93"/>
-      <c r="B29" s="94" t="s">
+      <c r="A29" s="97"/>
+      <c r="B29" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="99" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:6">
-      <c r="A30" s="93"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="105"/>
       <c r="C30" s="105"/>
       <c r="D30" s="105"/>
@@ -7175,81 +7155,81 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" customFormat="1" spans="1:6">
-      <c r="A31" s="93"/>
-      <c r="B31" s="98" t="s">
+      <c r="A31" s="97"/>
+      <c r="B31" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98" t="s">
+      <c r="E31" s="58"/>
+      <c r="F31" s="58" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:6">
-      <c r="A32" s="93"/>
-      <c r="B32" s="98" t="s">
+      <c r="A32" s="97"/>
+      <c r="B32" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="98" t="s">
+      <c r="D32" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="58" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="34" s="72" customFormat="1" spans="1:8">
-      <c r="A34" s="90" t="s">
+    <row r="34" s="57" customFormat="1" spans="1:8">
+      <c r="A34" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="94" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88" t="s">
+      <c r="D34" s="94"/>
+      <c r="E34" s="94" t="s">
         <v>317</v>
       </c>
       <c r="H34" s="57" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="35" s="72" customFormat="1" spans="1:8">
-      <c r="A35" s="90"/>
-      <c r="B35" s="88" t="s">
+    <row r="35" s="57" customFormat="1" spans="1:8">
+      <c r="A35" s="93"/>
+      <c r="B35" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94" t="s">
         <v>317</v>
       </c>
       <c r="H35" s="57" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="36" s="72" customFormat="1" spans="1:8">
-      <c r="A36" s="90"/>
-      <c r="B36" s="88" t="s">
+    <row r="36" s="57" customFormat="1" spans="1:8">
+      <c r="A36" s="93"/>
+      <c r="B36" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88" t="s">
+      <c r="D36" s="94"/>
+      <c r="E36" s="94" t="s">
         <v>317</v>
       </c>
       <c r="H36" s="57" t="s">
@@ -7277,10 +7257,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:A77"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="13.5"/>
@@ -8033,491 +8013,516 @@
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="84" t="s">
         <v>379</v>
       </c>
       <c r="B43" s="85" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="C43" s="86" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="E43" s="86" t="s">
         <v>324</v>
       </c>
+      <c r="F43" s="87" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="84"/>
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="84"/>
+      <c r="B45" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C45" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D45" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="E44" s="86" t="s">
+      <c r="E45" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="88" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="84"/>
-      <c r="B45" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="C45" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="E45" s="86" t="s">
+      <c r="F45" s="87"/>
+    </row>
+    <row r="46" s="72" customFormat="1" spans="1:6">
+      <c r="A46" s="91"/>
+      <c r="B46" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" s="89" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="84"/>
-      <c r="B46" s="87" t="s">
+      <c r="F46" s="87"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="84"/>
+      <c r="B47" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C47" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D47" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="86" t="s">
+      <c r="E47" s="89" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="84"/>
-      <c r="B47" s="87" t="s">
+      <c r="F47" s="87"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="84"/>
+      <c r="B48" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C48" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D48" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="E47" s="86" t="s">
+      <c r="E48" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="84"/>
-      <c r="B48" s="87" t="s">
+      <c r="F48" s="87"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="84"/>
+      <c r="B49" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C49" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D49" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="86" t="s">
+      <c r="E49" s="89" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="84"/>
-      <c r="B49" s="87" t="s">
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="84"/>
+      <c r="B50" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C50" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D50" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="E49" s="86" t="s">
+      <c r="E50" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="84"/>
-      <c r="B50" s="87" t="s">
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="84"/>
+      <c r="B51" s="90" t="s">
         <v>336</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C51" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="D50" s="86" t="s">
+      <c r="D51" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="E50" s="86" t="s">
+      <c r="E51" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="84"/>
-      <c r="B51" s="87" t="s">
+      <c r="F51" s="87"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="84"/>
+      <c r="B52" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C52" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="D51" s="86" t="s">
+      <c r="D52" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="E51" s="86" t="s">
+      <c r="E52" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="84"/>
-      <c r="B52" s="87" t="s">
+      <c r="F52" s="87"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="84"/>
+      <c r="B53" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C53" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="D52" s="86" t="s">
+      <c r="D53" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="E52" s="86" t="s">
+      <c r="E53" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="84"/>
-      <c r="B53" s="87" t="s">
+      <c r="F53" s="87"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="84"/>
+      <c r="B54" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C54" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="D53" s="86" t="s">
+      <c r="D54" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="E53" s="86" t="s">
+      <c r="E54" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="84"/>
-      <c r="B54" s="87" t="s">
+      <c r="F54" s="87"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="84"/>
+      <c r="B55" s="90" t="s">
         <v>343</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C55" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="D54" s="86" t="s">
+      <c r="D55" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="E54" s="86" t="s">
+      <c r="E55" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="84"/>
-      <c r="B55" s="87" t="s">
+      <c r="F55" s="87"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="84"/>
+      <c r="B56" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C56" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="D55" s="86" t="s">
+      <c r="D56" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="E55" s="86" t="s">
+      <c r="E56" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="84"/>
-      <c r="B56" s="87" t="s">
+      <c r="F56" s="87"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="84"/>
+      <c r="B57" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C57" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="D56" s="86" t="s">
+      <c r="D57" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="E56" s="86" t="s">
+      <c r="E57" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="84"/>
-      <c r="B57" s="87" t="s">
+      <c r="F57" s="87"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="84"/>
+      <c r="B58" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C58" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="D57" s="86" t="s">
+      <c r="D58" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="E57" s="86" t="s">
+      <c r="E58" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="84"/>
-      <c r="B58" s="87" t="s">
+      <c r="F58" s="87"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="84"/>
+      <c r="B59" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C59" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="D58" s="86" t="s">
+      <c r="D59" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="E58" s="86" t="s">
+      <c r="E59" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="84"/>
-      <c r="B59" s="87" t="s">
+      <c r="F59" s="87"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="84"/>
+      <c r="B60" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C60" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D60" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E60" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="84"/>
-      <c r="B60" s="87" t="s">
+      <c r="F60" s="87"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="84"/>
+      <c r="B61" s="90" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C61" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D61" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="E60" s="86" t="s">
+      <c r="E61" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="84"/>
-      <c r="B61" s="87" t="s">
+      <c r="F61" s="87"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="84"/>
+      <c r="B62" s="90" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C62" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="D61" s="86" t="s">
+      <c r="D62" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="E61" s="86" t="s">
+      <c r="E62" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="84"/>
-      <c r="B62" s="85" t="s">
+      <c r="F62" s="87"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="84"/>
+      <c r="B63" s="88" t="s">
         <v>359</v>
       </c>
-      <c r="C62" s="86" t="s">
+      <c r="C63" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="D62" s="86" t="s">
+      <c r="D63" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="E62" s="86" t="s">
+      <c r="E63" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="84"/>
-      <c r="B63" s="85" t="s">
+      <c r="F63" s="87"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="84"/>
+      <c r="B64" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C64" s="89" t="s">
         <v>362</v>
       </c>
-      <c r="D63" s="89" t="s">
+      <c r="D64" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E64" s="89" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="65" s="72" customFormat="1" spans="1:8">
-      <c r="A65" s="90" t="s">
+      <c r="F64" s="87"/>
+    </row>
+    <row r="66" s="57" customFormat="1" spans="1:5">
+      <c r="A66" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B66" s="94" t="s">
         <v>381</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88" t="s">
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H65" s="57"/>
-    </row>
-    <row r="66" s="72" customFormat="1" spans="1:8">
-      <c r="A66" s="90"/>
-      <c r="B66" s="88" t="s">
+    </row>
+    <row r="67" s="57" customFormat="1" spans="1:5">
+      <c r="A67" s="93"/>
+      <c r="B67" s="94" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88" t="s">
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H66" s="57"/>
-    </row>
-    <row r="67" s="72" customFormat="1" spans="1:8">
-      <c r="A67" s="90"/>
-      <c r="B67" s="88" t="s">
+    </row>
+    <row r="68" s="57" customFormat="1" spans="1:5">
+      <c r="A68" s="93"/>
+      <c r="B68" s="94" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88" t="s">
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H67" s="57"/>
-    </row>
-    <row r="68" s="72" customFormat="1" spans="1:8">
-      <c r="A68" s="90"/>
-      <c r="B68" s="88" t="s">
+    </row>
+    <row r="69" s="57" customFormat="1" spans="1:5">
+      <c r="A69" s="93"/>
+      <c r="B69" s="94" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88" t="s">
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H68" s="57"/>
-    </row>
-    <row r="69" s="72" customFormat="1" spans="1:8">
-      <c r="A69" s="90"/>
-      <c r="B69" s="88" t="s">
+    </row>
+    <row r="70" s="57" customFormat="1" spans="1:5">
+      <c r="A70" s="93"/>
+      <c r="B70" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88" t="s">
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H69" s="57"/>
-    </row>
-    <row r="70" s="72" customFormat="1" spans="1:8">
-      <c r="A70" s="90"/>
-      <c r="B70" s="88" t="s">
+    </row>
+    <row r="71" s="57" customFormat="1" spans="1:5">
+      <c r="A71" s="93"/>
+      <c r="B71" s="94" t="s">
         <v>386</v>
       </c>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88" t="s">
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H70" s="57"/>
-    </row>
-    <row r="71" s="72" customFormat="1" spans="1:8">
-      <c r="A71" s="90"/>
-      <c r="B71" s="88" t="s">
+    </row>
+    <row r="72" s="57" customFormat="1" spans="1:5">
+      <c r="A72" s="93"/>
+      <c r="B72" s="94" t="s">
         <v>387</v>
       </c>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88" t="s">
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H71" s="57"/>
-    </row>
-    <row r="72" s="72" customFormat="1" spans="1:8">
-      <c r="A72" s="90"/>
-      <c r="B72" s="88" t="s">
+    </row>
+    <row r="73" s="57" customFormat="1" spans="1:5">
+      <c r="A73" s="93"/>
+      <c r="B73" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88" t="s">
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H72" s="57"/>
-    </row>
-    <row r="73" s="72" customFormat="1" spans="1:5">
-      <c r="A73" s="90"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88" t="s">
+    </row>
+    <row r="74" s="57" customFormat="1" spans="1:5">
+      <c r="A74" s="93"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="74" s="72" customFormat="1" spans="1:8">
-      <c r="A74" s="90"/>
-      <c r="B74" s="88" t="s">
+    <row r="75" s="57" customFormat="1" spans="1:5">
+      <c r="A75" s="93"/>
+      <c r="B75" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88" t="s">
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H74" s="57"/>
-    </row>
-    <row r="75" s="72" customFormat="1" spans="1:8">
-      <c r="A75" s="90"/>
-      <c r="B75" s="88" t="s">
+    </row>
+    <row r="76" s="57" customFormat="1" spans="1:5">
+      <c r="A76" s="93"/>
+      <c r="B76" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88" t="s">
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H75" s="57"/>
-    </row>
-    <row r="76" s="72" customFormat="1" spans="1:8">
-      <c r="A76" s="90"/>
-      <c r="B76" s="88" t="s">
+    </row>
+    <row r="77" s="57" customFormat="1" spans="1:5">
+      <c r="A77" s="93"/>
+      <c r="B77" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88" t="s">
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H76" s="57"/>
-    </row>
-    <row r="77" s="72" customFormat="1" spans="1:8">
-      <c r="A77" s="90"/>
-      <c r="B77" s="88" t="s">
+    </row>
+    <row r="78" s="57" customFormat="1" spans="1:5">
+      <c r="A78" s="93"/>
+      <c r="B78" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88" t="s">
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="H77" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A43:A63"/>
-    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="A43:A64"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="F43:F64"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77 F34:F41 G65:G67 G68:G73 G74:G76"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78 F34:F41 G66:G68 G69:G74 G75:G77"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F33">
       <formula1>"手工录入,自动计算"</formula1>
     </dataValidation>
@@ -10652,10 +10657,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F89 F1:F88 F91:F1048576">
       <formula1>"手工录入,自动计算"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E90"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G88 G91:G1048576">
       <formula1>"输入框,下拉框,文本框"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E90"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/需求/字段(11.0).xlsx
+++ b/static/需求/字段(11.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="月报数据项" sheetId="3" r:id="rId1"/>
@@ -827,26 +827,7 @@
     <t>r_avg_mon</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>post("/r_avg_mon",time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>post("/r_avg_mon",time)</t>
   </si>
   <si>
     <t>部门过去12个月的已完成版本的月平均首轮通过率（截至上一个自然月）</t>
@@ -858,26 +839,7 @@
     <t>p_avg_mon</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>post("/p_avg_mon",time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>post("/p_avg_mon",time)</t>
   </si>
   <si>
     <t>小组</t>
@@ -2093,14 +2055,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="#\ ?/?"/>
   </numFmts>
   <fonts count="34">
@@ -2200,29 +2162,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2236,23 +2183,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2267,6 +2237,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2274,9 +2251,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,32 +2273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2327,17 +2289,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,37 +2338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,19 +2356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,25 +2386,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,7 +2452,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,55 +2500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2556,7 +2518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2692,11 +2654,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2718,9 +2710,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2733,47 +2736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2782,152 +2744,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2952,13 +2914,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
@@ -2967,13 +2929,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2985,13 +2947,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3003,7 +2965,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3021,63 +2983,63 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3207,15 +3169,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3231,16 +3193,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -3600,2974 +3556,2974 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.90833333333333" style="106" customWidth="1"/>
-    <col min="2" max="2" width="14.1833333333333" style="106" customWidth="1"/>
-    <col min="3" max="3" width="16.9083333333333" style="106" customWidth="1"/>
-    <col min="4" max="4" width="32.5416666666667" style="106" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="106" customWidth="1"/>
-    <col min="6" max="6" width="5.81666666666667" style="106" customWidth="1"/>
-    <col min="7" max="7" width="9.81666666666667" style="106" customWidth="1"/>
-    <col min="8" max="8" width="50.75" style="106" customWidth="1"/>
-    <col min="9" max="9" width="107.183333333333" style="106" customWidth="1"/>
-    <col min="10" max="10" width="52.8166666666667" style="106" customWidth="1"/>
-    <col min="11" max="16384" width="9.81666666666667" style="106"/>
+    <col min="1" max="1" width="3.90833333333333" style="104" customWidth="1"/>
+    <col min="2" max="2" width="14.1833333333333" style="104" customWidth="1"/>
+    <col min="3" max="3" width="16.9083333333333" style="104" customWidth="1"/>
+    <col min="4" max="4" width="32.5416666666667" style="104" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="104" customWidth="1"/>
+    <col min="6" max="6" width="5.81666666666667" style="104" customWidth="1"/>
+    <col min="7" max="7" width="9.81666666666667" style="104" customWidth="1"/>
+    <col min="8" max="8" width="50.75" style="104" customWidth="1"/>
+    <col min="9" max="9" width="107.183333333333" style="104" customWidth="1"/>
+    <col min="10" max="10" width="52.8166666666667" style="104" customWidth="1"/>
+    <col min="11" max="16384" width="9.81666666666667" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:9">
-      <c r="A2" s="106">
+      <c r="A2" s="104">
         <v>1</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="112" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="112" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="106">
+      <c r="A3" s="104">
         <v>2</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="112" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="106">
+      <c r="A4" s="104">
         <v>3</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="112" t="s">
+      <c r="F4" s="110"/>
+      <c r="G4" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="110" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:9">
-      <c r="A5" s="106">
+      <c r="A5" s="104">
         <v>4</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="112" t="s">
+      <c r="F5" s="110"/>
+      <c r="G5" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="106">
+      <c r="A6" s="104">
         <v>5</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="112" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" ht="67.5" spans="1:9">
-      <c r="A7" s="106">
+      <c r="A7" s="104">
         <v>6</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="112" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="112" t="s">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="106">
+      <c r="A8" s="104">
         <v>7</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="112" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="106">
+      <c r="A9" s="104">
         <v>8</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="112" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="112" t="s">
+      <c r="F9" s="110"/>
+      <c r="G9" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="112"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="106">
+      <c r="A10" s="104">
         <v>9</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="112" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="106">
+      <c r="A11" s="104">
         <v>10</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="112" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="112" t="s">
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="112"/>
+      <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="106">
+      <c r="A12" s="104">
         <v>11</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="112" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="106">
-        <v>12</v>
-      </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110" t="s">
+      <c r="A13" s="104">
+        <v>12</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="112" t="s">
+      <c r="F13" s="110"/>
+      <c r="G13" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="106">
+      <c r="A14" s="104">
         <v>13</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="112" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="112" t="s">
+      <c r="F14" s="110"/>
+      <c r="G14" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="112"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="106">
+      <c r="A15" s="104">
         <v>14</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="112" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" hidden="1" spans="1:9">
-      <c r="A16" s="106">
+      <c r="A16" s="104">
         <v>15</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" hidden="1" spans="1:9">
-      <c r="A17" s="106">
+      <c r="A17" s="104">
         <v>16</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="112" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" hidden="1" spans="1:9">
-      <c r="A18" s="106">
+      <c r="A18" s="104">
         <v>17</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="112" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" hidden="1" spans="1:9">
-      <c r="A19" s="106">
+      <c r="A19" s="104">
         <v>18</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="112" t="s">
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" hidden="1" spans="1:9">
-      <c r="A20" s="106">
+      <c r="A20" s="104">
         <v>19</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="112" t="s">
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" hidden="1" spans="1:9">
-      <c r="A21" s="106">
+      <c r="A21" s="104">
         <v>20</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="112" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="106">
+      <c r="A22" s="104">
         <v>21</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="112" t="s">
+      <c r="F22" s="110"/>
+      <c r="G22" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="106">
+      <c r="A23" s="104">
         <v>22</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="112" t="s">
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="112" t="s">
+      <c r="F23" s="110"/>
+      <c r="G23" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="112"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="106">
+      <c r="A24" s="104">
         <v>23</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="112" t="s">
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="112" t="s">
+      <c r="F24" s="110"/>
+      <c r="G24" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="112"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="106">
+      <c r="A25" s="104">
         <v>24</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="112" t="s">
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="106">
+      <c r="A26" s="104">
         <v>25</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="112" t="s">
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="112" t="s">
+      <c r="F26" s="110"/>
+      <c r="G26" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="112"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="106">
+      <c r="A27" s="104">
         <v>26</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="112" t="s">
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="112" t="s">
+      <c r="F27" s="110"/>
+      <c r="G27" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="112"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="106">
+      <c r="A28" s="104">
         <v>27</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="112" t="s">
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="112" t="s">
+      <c r="F28" s="110"/>
+      <c r="G28" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="112"/>
+      <c r="I28" s="110"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="106">
+      <c r="A29" s="104">
         <v>28</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="112" t="s">
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="106">
+      <c r="A30" s="104">
         <v>29</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="112" t="s">
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="112" t="s">
+      <c r="F30" s="110"/>
+      <c r="G30" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="112"/>
+      <c r="I30" s="110"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="106">
+      <c r="A31" s="104">
         <v>30</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="112" t="s">
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="112" t="s">
+      <c r="F31" s="110"/>
+      <c r="G31" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="112"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="106">
+      <c r="A32" s="104">
         <v>31</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="112" t="s">
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="112" t="s">
+      <c r="F32" s="110"/>
+      <c r="G32" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="112"/>
+      <c r="I32" s="110"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="106">
+      <c r="A33" s="104">
         <v>32</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="112" t="s">
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="106">
+      <c r="A34" s="104">
         <v>33</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110" t="s">
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="112" t="s">
+      <c r="E34" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="112" t="s">
+      <c r="F34" s="110"/>
+      <c r="G34" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="112"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="106">
+      <c r="A35" s="104">
         <v>34</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="112" t="s">
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="112" t="s">
+      <c r="F35" s="110"/>
+      <c r="G35" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="112"/>
+      <c r="I35" s="110"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="106">
+      <c r="A36" s="104">
         <v>35</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="112" t="s">
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="112" t="s">
+      <c r="F36" s="110"/>
+      <c r="G36" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="112"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" hidden="1" spans="1:9">
-      <c r="A37" s="106">
+      <c r="A37" s="104">
         <v>36</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="112" t="s">
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="106">
+      <c r="A38" s="104">
         <v>37</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="112" t="s">
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="112" t="s">
+      <c r="F38" s="110"/>
+      <c r="G38" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="112"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="106">
+      <c r="A39" s="104">
         <v>38</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="112" t="s">
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="112" t="s">
+      <c r="F39" s="110"/>
+      <c r="G39" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="112"/>
+      <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="106">
+      <c r="A40" s="104">
         <v>39</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="112" t="s">
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="112" t="s">
+      <c r="F40" s="110"/>
+      <c r="G40" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="112"/>
+      <c r="I40" s="110"/>
     </row>
     <row r="41" hidden="1" spans="1:9">
-      <c r="A41" s="106">
+      <c r="A41" s="104">
         <v>40</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="112" t="s">
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="106">
+      <c r="A42" s="104">
         <v>41</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="112" t="s">
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="112" t="s">
+      <c r="F42" s="110"/>
+      <c r="G42" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="112"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="106">
+      <c r="A43" s="104">
         <v>42</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="112" t="s">
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="112" t="s">
+      <c r="F43" s="110"/>
+      <c r="G43" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="112"/>
+      <c r="I43" s="110"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="106">
+      <c r="A44" s="104">
         <v>43</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="112" t="s">
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="112" t="s">
+      <c r="F44" s="110"/>
+      <c r="G44" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="112"/>
+      <c r="I44" s="110"/>
     </row>
     <row r="45" hidden="1" spans="1:9">
-      <c r="A45" s="106">
+      <c r="A45" s="104">
         <v>44</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="112" t="s">
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="106">
+      <c r="A46" s="104">
         <v>45</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="112" t="s">
+      <c r="F46" s="110"/>
+      <c r="G46" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="I46" s="112"/>
+      <c r="I46" s="110"/>
     </row>
     <row r="47" ht="17.25" hidden="1" spans="1:9">
-      <c r="A47" s="106">
+      <c r="A47" s="104">
         <v>46</v>
       </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="113" t="s">
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="112" t="s">
+      <c r="F47" s="110"/>
+      <c r="G47" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="112"/>
+      <c r="I47" s="110"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="106">
+      <c r="A48" s="104">
         <v>47</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="112" t="s">
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="112" t="s">
+      <c r="F48" s="110"/>
+      <c r="G48" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="112"/>
+      <c r="I48" s="110"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="106">
+      <c r="A49" s="104">
         <v>48</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="112" t="s">
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="106">
+      <c r="A50" s="104">
         <v>49</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110" t="s">
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="112" t="s">
+      <c r="E50" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="112" t="s">
+      <c r="F50" s="110"/>
+      <c r="G50" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="112"/>
+      <c r="I50" s="110"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="106">
+      <c r="A51" s="104">
         <v>50</v>
       </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="112" t="s">
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="112" t="s">
+      <c r="F51" s="110"/>
+      <c r="G51" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="I51" s="112"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="106">
+      <c r="A52" s="104">
         <v>51</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="112" t="s">
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="112" t="s">
+      <c r="F52" s="110"/>
+      <c r="G52" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="I52" s="112"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="106">
+      <c r="A53" s="104">
         <v>52</v>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="112" t="s">
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="112" t="s">
+      <c r="F53" s="110"/>
+      <c r="G53" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="112"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="106">
+      <c r="A54" s="104">
         <v>53</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="112" t="s">
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="112" t="s">
+      <c r="F54" s="110"/>
+      <c r="G54" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="I54" s="112"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="106">
+      <c r="A55" s="104">
         <v>54</v>
       </c>
-      <c r="B55" s="110"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="112" t="s">
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="112" t="s">
+      <c r="F55" s="110"/>
+      <c r="G55" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="112"/>
-      <c r="J55" s="106" t="s">
+      <c r="I55" s="110"/>
+      <c r="J55" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="106">
+      <c r="A56" s="104">
         <v>55</v>
       </c>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="112" t="s">
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" hidden="1" spans="1:9">
-      <c r="A57" s="106">
+      <c r="A57" s="104">
         <v>56</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110" t="s">
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="112" t="s">
+      <c r="E57" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="112" t="s">
+      <c r="F57" s="110"/>
+      <c r="G57" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="I57" s="112"/>
+      <c r="I57" s="110"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="106">
+      <c r="A58" s="104">
         <v>57</v>
       </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="112" t="s">
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="112" t="s">
+      <c r="F58" s="110"/>
+      <c r="G58" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="112"/>
+      <c r="I58" s="110"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="106">
+      <c r="A59" s="104">
         <v>58</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="112" t="s">
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="112" t="s">
+      <c r="F59" s="110"/>
+      <c r="G59" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="I59" s="112"/>
+      <c r="I59" s="110"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="106">
+      <c r="A60" s="104">
         <v>59</v>
       </c>
-      <c r="B60" s="110"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="112" t="s">
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
     </row>
     <row r="61" hidden="1" spans="1:9">
-      <c r="A61" s="106">
+      <c r="A61" s="104">
         <v>60</v>
       </c>
-      <c r="B61" s="110"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="112" t="s">
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="112" t="s">
+      <c r="F61" s="110"/>
+      <c r="G61" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="I61" s="112"/>
+      <c r="I61" s="110"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="106">
+      <c r="A62" s="104">
         <v>61</v>
       </c>
-      <c r="B62" s="110"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="112" t="s">
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="112" t="s">
+      <c r="F62" s="110"/>
+      <c r="G62" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="I62" s="112"/>
+      <c r="I62" s="110"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="106">
+      <c r="A63" s="104">
         <v>62</v>
       </c>
-      <c r="B63" s="110"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="112" t="s">
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="112" t="s">
+      <c r="F63" s="110"/>
+      <c r="G63" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="I63" s="112"/>
+      <c r="I63" s="110"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="106">
+      <c r="A64" s="104">
         <v>63</v>
       </c>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="112" t="s">
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
     </row>
     <row r="65" hidden="1" spans="1:9">
-      <c r="A65" s="106">
+      <c r="A65" s="104">
         <v>64</v>
       </c>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="112" t="s">
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="112" t="s">
+      <c r="F65" s="110"/>
+      <c r="G65" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="I65" s="112"/>
+      <c r="I65" s="110"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="106">
+      <c r="A66" s="104">
         <v>65</v>
       </c>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="112" t="s">
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="112" t="s">
+      <c r="F66" s="110"/>
+      <c r="G66" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="112"/>
+      <c r="I66" s="110"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="106">
+      <c r="A67" s="104">
         <v>66</v>
       </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="112" t="s">
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="112" t="s">
+      <c r="F67" s="110"/>
+      <c r="G67" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="112"/>
+      <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="106">
+      <c r="A68" s="104">
         <v>67</v>
       </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="112" t="s">
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="112"/>
-      <c r="I68" s="112"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="106">
+      <c r="A69" s="104">
         <v>68</v>
       </c>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110" t="s">
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="112" t="s">
+      <c r="E69" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="112" t="s">
+      <c r="F69" s="110"/>
+      <c r="G69" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="I69" s="112"/>
+      <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="106">
+      <c r="A70" s="104">
         <v>69</v>
       </c>
-      <c r="B70" s="110"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="112" t="s">
+      <c r="B70" s="108"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="112" t="s">
+      <c r="F70" s="110"/>
+      <c r="G70" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="I70" s="112"/>
+      <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="106">
+      <c r="A71" s="104">
         <v>70</v>
       </c>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="112" t="s">
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="112"/>
-      <c r="G71" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="112" t="s">
+      <c r="F71" s="110"/>
+      <c r="G71" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="112"/>
+      <c r="I71" s="110"/>
     </row>
     <row r="72" hidden="1" spans="1:9">
-      <c r="A72" s="106">
+      <c r="A72" s="104">
         <v>71</v>
       </c>
-      <c r="B72" s="110"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="112" t="s">
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="110"/>
+      <c r="I72" s="110"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="106">
+      <c r="A73" s="104">
         <v>72</v>
       </c>
-      <c r="B73" s="110"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="112" t="s">
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="112" t="s">
+      <c r="F73" s="110"/>
+      <c r="G73" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="112"/>
+      <c r="I73" s="110"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="106">
+      <c r="A74" s="104">
         <v>73</v>
       </c>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="112" t="s">
+      <c r="B74" s="108"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="112" t="s">
+      <c r="F74" s="110"/>
+      <c r="G74" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="I74" s="112"/>
+      <c r="I74" s="110"/>
     </row>
     <row r="75" hidden="1" spans="1:9">
-      <c r="A75" s="106">
+      <c r="A75" s="104">
         <v>74</v>
       </c>
-      <c r="B75" s="110"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="112" t="s">
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="112" t="s">
+      <c r="F75" s="110"/>
+      <c r="G75" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="I75" s="112"/>
+      <c r="I75" s="110"/>
     </row>
     <row r="76" hidden="1" spans="1:9">
-      <c r="A76" s="106">
+      <c r="A76" s="104">
         <v>75</v>
       </c>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="112" t="s">
+      <c r="B76" s="108"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="112" t="s">
+      <c r="F76" s="110"/>
+      <c r="G76" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="I76" s="112"/>
+      <c r="I76" s="110"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="106">
+      <c r="A77" s="104">
         <v>76</v>
       </c>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="112" t="s">
+      <c r="B77" s="108"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="112" t="s">
+      <c r="F77" s="110"/>
+      <c r="G77" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="I77" s="112"/>
+      <c r="I77" s="110"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="106">
+      <c r="A78" s="104">
         <v>77</v>
       </c>
-      <c r="B78" s="110"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="112" t="s">
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="112" t="s">
+      <c r="F78" s="110"/>
+      <c r="G78" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="I78" s="112"/>
+      <c r="I78" s="110"/>
     </row>
     <row r="79" hidden="1" spans="1:9">
-      <c r="A79" s="106">
+      <c r="A79" s="104">
         <v>78</v>
       </c>
-      <c r="B79" s="110"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="112" t="s">
+      <c r="B79" s="108"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="112"/>
-      <c r="G79" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="112" t="s">
+      <c r="F79" s="110"/>
+      <c r="G79" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="112"/>
+      <c r="I79" s="110"/>
     </row>
     <row r="80" hidden="1" spans="1:9">
-      <c r="A80" s="106">
+      <c r="A80" s="104">
         <v>79</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="112" t="s">
+      <c r="B80" s="108"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="106">
+      <c r="A81" s="104">
         <v>80</v>
       </c>
-      <c r="B81" s="110"/>
-      <c r="C81" s="110" t="s">
+      <c r="B81" s="108"/>
+      <c r="C81" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="110" t="s">
+      <c r="D81" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E81" s="112" t="s">
+      <c r="E81" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="112"/>
-      <c r="G81" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="112" t="s">
+      <c r="F81" s="110"/>
+      <c r="G81" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="112"/>
+      <c r="I81" s="110"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="106">
+      <c r="A82" s="104">
         <v>81</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="112" t="s">
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="112"/>
-      <c r="G82" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="112" t="s">
+      <c r="F82" s="110"/>
+      <c r="G82" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I82" s="112"/>
+      <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="106">
+      <c r="A83" s="104">
         <v>82</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="112" t="s">
+      <c r="B83" s="108"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F83" s="112"/>
-      <c r="G83" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="112" t="s">
+      <c r="F83" s="110"/>
+      <c r="G83" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="I83" s="112"/>
+      <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="106">
+      <c r="A84" s="104">
         <v>83</v>
       </c>
-      <c r="B84" s="110"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="110"/>
-      <c r="E84" s="112" t="s">
+      <c r="B84" s="108"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F84" s="112"/>
-      <c r="G84" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="112"/>
-      <c r="I84" s="112"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="106">
+      <c r="A85" s="104">
         <v>84</v>
       </c>
-      <c r="B85" s="110"/>
-      <c r="C85" s="110"/>
-      <c r="D85" s="110"/>
-      <c r="E85" s="112" t="s">
+      <c r="B85" s="108"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="112"/>
-      <c r="G85" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="112" t="s">
+      <c r="F85" s="110"/>
+      <c r="G85" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I85" s="112"/>
+      <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="106">
+      <c r="A86" s="104">
         <v>85</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="112" t="s">
+      <c r="B86" s="108"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="112" t="s">
+      <c r="F86" s="110"/>
+      <c r="G86" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="I86" s="112"/>
+      <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="106">
+      <c r="A87" s="104">
         <v>86</v>
       </c>
-      <c r="B87" s="110"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="112" t="s">
+      <c r="B87" s="108"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="112" t="s">
+      <c r="F87" s="110"/>
+      <c r="G87" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="I87" s="112"/>
+      <c r="I87" s="110"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="106">
+      <c r="A88" s="104">
         <v>87</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="110"/>
-      <c r="D88" s="110"/>
-      <c r="E88" s="112" t="s">
+      <c r="B88" s="108"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="106">
+      <c r="A89" s="104">
         <v>88</v>
       </c>
-      <c r="B89" s="110"/>
-      <c r="C89" s="110"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="112" t="s">
+      <c r="B89" s="108"/>
+      <c r="C89" s="108"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="F89" s="112"/>
-      <c r="G89" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="112" t="s">
+      <c r="F89" s="110"/>
+      <c r="G89" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="112"/>
+      <c r="I89" s="110"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="106">
+      <c r="A90" s="104">
         <v>89</v>
       </c>
-      <c r="B90" s="110"/>
-      <c r="C90" s="110"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="112" t="s">
+      <c r="B90" s="108"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="112" t="s">
+      <c r="F90" s="110"/>
+      <c r="G90" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="I90" s="112"/>
+      <c r="I90" s="110"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="106">
+      <c r="A91" s="104">
         <v>90</v>
       </c>
-      <c r="B91" s="110"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="112" t="s">
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F91" s="112"/>
-      <c r="G91" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="112" t="s">
+      <c r="F91" s="110"/>
+      <c r="G91" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="I91" s="112"/>
+      <c r="I91" s="110"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="106">
+      <c r="A92" s="104">
         <v>91</v>
       </c>
-      <c r="B92" s="110"/>
-      <c r="C92" s="110"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="112" t="s">
+      <c r="B92" s="108"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F92" s="112"/>
-      <c r="G92" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="112"/>
-      <c r="I92" s="112"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="110"/>
+      <c r="I92" s="110"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="106">
+      <c r="A93" s="104">
         <v>92</v>
       </c>
-      <c r="B93" s="110"/>
-      <c r="C93" s="110"/>
-      <c r="D93" s="110" t="s">
+      <c r="B93" s="108"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="112" t="s">
+      <c r="E93" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="F93" s="112"/>
-      <c r="G93" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="112" t="s">
+      <c r="F93" s="110"/>
+      <c r="G93" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="I93" s="112"/>
+      <c r="I93" s="110"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="106">
+      <c r="A94" s="104">
         <v>93</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="112" t="s">
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="112" t="s">
+      <c r="F94" s="110"/>
+      <c r="G94" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="I94" s="112"/>
+      <c r="I94" s="110"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="106">
+      <c r="A95" s="104">
         <v>94</v>
       </c>
-      <c r="B95" s="110"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="112" t="s">
+      <c r="B95" s="108"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F95" s="112"/>
-      <c r="G95" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="112" t="s">
+      <c r="F95" s="110"/>
+      <c r="G95" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="I95" s="112"/>
+      <c r="I95" s="110"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="106">
+      <c r="A96" s="104">
         <v>95</v>
       </c>
-      <c r="B96" s="110"/>
-      <c r="C96" s="110"/>
-      <c r="D96" s="110"/>
-      <c r="E96" s="112" t="s">
+      <c r="B96" s="108"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="112"/>
-      <c r="G96" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="112"/>
-      <c r="I96" s="112"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="106">
+      <c r="A97" s="104">
         <v>96</v>
       </c>
-      <c r="B97" s="110"/>
-      <c r="C97" s="110"/>
-      <c r="D97" s="110"/>
-      <c r="E97" s="112" t="s">
+      <c r="B97" s="108"/>
+      <c r="C97" s="108"/>
+      <c r="D97" s="108"/>
+      <c r="E97" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="112"/>
-      <c r="G97" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="112" t="s">
+      <c r="F97" s="110"/>
+      <c r="G97" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="I97" s="112"/>
+      <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="106">
+      <c r="A98" s="104">
         <v>97</v>
       </c>
-      <c r="B98" s="110"/>
-      <c r="C98" s="110"/>
-      <c r="D98" s="110"/>
-      <c r="E98" s="112" t="s">
+      <c r="B98" s="108"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="112"/>
-      <c r="G98" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="112" t="s">
+      <c r="F98" s="110"/>
+      <c r="G98" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I98" s="112"/>
+      <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="106">
+      <c r="A99" s="104">
         <v>98</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="112" t="s">
+      <c r="B99" s="108"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="112" t="s">
+      <c r="F99" s="110"/>
+      <c r="G99" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="I99" s="112"/>
+      <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="106">
+      <c r="A100" s="104">
         <v>99</v>
       </c>
-      <c r="B100" s="110"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="112" t="s">
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="F100" s="112"/>
-      <c r="G100" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
+      <c r="F100" s="110"/>
+      <c r="G100" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="110"/>
+      <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="106">
+      <c r="A101" s="104">
         <v>100</v>
       </c>
-      <c r="B101" s="110"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="110"/>
-      <c r="E101" s="112" t="s">
+      <c r="B101" s="108"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="112"/>
-      <c r="G101" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="112" t="s">
+      <c r="F101" s="110"/>
+      <c r="G101" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="I101" s="112"/>
+      <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="106">
+      <c r="A102" s="104">
         <v>101</v>
       </c>
-      <c r="B102" s="110"/>
-      <c r="C102" s="110"/>
-      <c r="D102" s="110"/>
-      <c r="E102" s="112" t="s">
+      <c r="B102" s="108"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="F102" s="112"/>
-      <c r="G102" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="112" t="s">
+      <c r="F102" s="110"/>
+      <c r="G102" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I102" s="112"/>
+      <c r="I102" s="110"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="106">
+      <c r="A103" s="104">
         <v>102</v>
       </c>
-      <c r="B103" s="110"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="112" t="s">
+      <c r="B103" s="108"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F103" s="112"/>
-      <c r="G103" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="112" t="s">
+      <c r="F103" s="110"/>
+      <c r="G103" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="I103" s="112"/>
+      <c r="I103" s="110"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="106">
+      <c r="A104" s="104">
         <v>103</v>
       </c>
-      <c r="B104" s="110"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="112" t="s">
+      <c r="B104" s="108"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="112"/>
-      <c r="G104" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="112"/>
-      <c r="I104" s="112"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
     </row>
     <row r="105" ht="17.25" spans="1:9">
-      <c r="A105" s="106">
+      <c r="A105" s="104">
         <v>104</v>
       </c>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110" t="s">
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="E105" s="113" t="s">
+      <c r="E105" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="112"/>
-      <c r="G105" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="112" t="s">
+      <c r="F105" s="110"/>
+      <c r="G105" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="I105" s="112"/>
+      <c r="I105" s="110"/>
     </row>
     <row r="106" ht="17.25" spans="1:9">
-      <c r="A106" s="106">
+      <c r="A106" s="104">
         <v>105</v>
       </c>
-      <c r="B106" s="110"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="113" t="s">
+      <c r="B106" s="108"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="F106" s="112"/>
-      <c r="G106" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="112" t="s">
+      <c r="F106" s="110"/>
+      <c r="G106" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="I106" s="112"/>
+      <c r="I106" s="110"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="106">
+      <c r="A107" s="104">
         <v>106</v>
       </c>
-      <c r="B107" s="110"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="112" t="s">
+      <c r="B107" s="108"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="F107" s="112"/>
-      <c r="G107" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="112" t="s">
+      <c r="F107" s="110"/>
+      <c r="G107" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="I107" s="112"/>
+      <c r="I107" s="110"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="106">
+      <c r="A108" s="104">
         <v>107</v>
       </c>
-      <c r="B108" s="110"/>
-      <c r="C108" s="110"/>
-      <c r="D108" s="110"/>
-      <c r="E108" s="112" t="s">
+      <c r="B108" s="108"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="108"/>
+      <c r="E108" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="F108" s="112"/>
-      <c r="G108" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="112"/>
-      <c r="I108" s="112"/>
+      <c r="F108" s="110"/>
+      <c r="G108" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="110"/>
+      <c r="I108" s="110"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="106">
+      <c r="A109" s="104">
         <v>108</v>
       </c>
-      <c r="B109" s="110"/>
-      <c r="C109" s="110"/>
-      <c r="D109" s="110" t="s">
+      <c r="B109" s="108"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E109" s="112" t="s">
+      <c r="E109" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="F109" s="112"/>
-      <c r="G109" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="112" t="s">
+      <c r="F109" s="110"/>
+      <c r="G109" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="I109" s="112"/>
+      <c r="I109" s="110"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="106">
+      <c r="A110" s="104">
         <v>109</v>
       </c>
-      <c r="B110" s="110"/>
-      <c r="C110" s="110"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="112" t="s">
+      <c r="B110" s="108"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F110" s="112"/>
-      <c r="G110" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="112" t="s">
+      <c r="F110" s="110"/>
+      <c r="G110" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="I110" s="112"/>
+      <c r="I110" s="110"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="106">
+      <c r="A111" s="104">
         <v>110</v>
       </c>
-      <c r="B111" s="110"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="112" t="s">
+      <c r="B111" s="108"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="F111" s="112"/>
-      <c r="G111" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="112" t="s">
+      <c r="F111" s="110"/>
+      <c r="G111" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="I111" s="112"/>
+      <c r="I111" s="110"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="106">
+      <c r="A112" s="104">
         <v>111</v>
       </c>
-      <c r="B112" s="110"/>
-      <c r="C112" s="110"/>
-      <c r="D112" s="110"/>
-      <c r="E112" s="112" t="s">
+      <c r="B112" s="108"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="F112" s="112"/>
-      <c r="G112" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="112" t="s">
+      <c r="F112" s="110"/>
+      <c r="G112" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="I112" s="112"/>
+      <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="106">
+      <c r="A113" s="104">
         <v>112</v>
       </c>
-      <c r="B113" s="110"/>
-      <c r="C113" s="110"/>
-      <c r="D113" s="110"/>
-      <c r="E113" s="112" t="s">
+      <c r="B113" s="108"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="F113" s="112"/>
-      <c r="G113" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="112" t="s">
+      <c r="F113" s="110"/>
+      <c r="G113" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="I113" s="112"/>
+      <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="106">
+      <c r="A114" s="104">
         <v>113</v>
       </c>
-      <c r="B114" s="110"/>
-      <c r="C114" s="110"/>
-      <c r="D114" s="110"/>
-      <c r="E114" s="112" t="s">
+      <c r="B114" s="108"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F114" s="112"/>
-      <c r="G114" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="112" t="s">
+      <c r="F114" s="110"/>
+      <c r="G114" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="I114" s="112"/>
+      <c r="I114" s="110"/>
     </row>
     <row r="115" hidden="1" spans="1:9">
-      <c r="A115" s="106">
+      <c r="A115" s="104">
         <v>114</v>
       </c>
-      <c r="B115" s="110"/>
-      <c r="C115" s="110"/>
-      <c r="D115" s="110"/>
-      <c r="E115" s="112" t="s">
+      <c r="B115" s="108"/>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F115" s="112"/>
-      <c r="G115" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="112"/>
-      <c r="I115" s="112"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="110"/>
+      <c r="I115" s="110"/>
     </row>
     <row r="116" hidden="1" spans="1:9">
-      <c r="A116" s="106">
+      <c r="A116" s="104">
         <v>115</v>
       </c>
-      <c r="B116" s="110"/>
-      <c r="C116" s="110" t="s">
+      <c r="B116" s="108"/>
+      <c r="C116" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D116" s="110" t="s">
+      <c r="D116" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="E116" s="112" t="s">
+      <c r="E116" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="F116" s="112"/>
-      <c r="G116" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="112"/>
-      <c r="I116" s="112"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="110"/>
+      <c r="I116" s="110"/>
     </row>
     <row r="117" hidden="1" spans="1:9">
-      <c r="A117" s="106">
+      <c r="A117" s="104">
         <v>116</v>
       </c>
-      <c r="B117" s="110"/>
-      <c r="C117" s="110"/>
-      <c r="D117" s="110"/>
-      <c r="E117" s="112" t="s">
+      <c r="B117" s="108"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="112"/>
-      <c r="G117" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="112"/>
-      <c r="I117" s="112"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="110"/>
+      <c r="I117" s="110"/>
     </row>
     <row r="118" hidden="1" spans="1:9">
-      <c r="A118" s="106">
+      <c r="A118" s="104">
         <v>117</v>
       </c>
-      <c r="B118" s="110"/>
-      <c r="C118" s="110"/>
-      <c r="D118" s="110"/>
-      <c r="E118" s="112" t="s">
+      <c r="B118" s="108"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="112"/>
-      <c r="G118" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="112"/>
-      <c r="I118" s="112"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="110"/>
+      <c r="I118" s="110"/>
     </row>
     <row r="119" hidden="1" spans="1:9">
-      <c r="A119" s="106">
+      <c r="A119" s="104">
         <v>118</v>
       </c>
-      <c r="B119" s="110"/>
-      <c r="C119" s="110"/>
-      <c r="D119" s="110"/>
-      <c r="E119" s="112" t="s">
+      <c r="B119" s="108"/>
+      <c r="C119" s="108"/>
+      <c r="D119" s="108"/>
+      <c r="E119" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="F119" s="112"/>
-      <c r="G119" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="112"/>
-      <c r="I119" s="112"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="110"/>
+      <c r="I119" s="110"/>
     </row>
     <row r="120" hidden="1" spans="1:9">
-      <c r="A120" s="106">
+      <c r="A120" s="104">
         <v>119</v>
       </c>
-      <c r="B120" s="110"/>
-      <c r="C120" s="110"/>
-      <c r="D120" s="110"/>
-      <c r="E120" s="112" t="s">
+      <c r="B120" s="108"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="112"/>
-      <c r="G120" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="112"/>
-      <c r="I120" s="112"/>
+      <c r="F120" s="110"/>
+      <c r="G120" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="110"/>
+      <c r="I120" s="110"/>
     </row>
     <row r="121" hidden="1" spans="1:9">
-      <c r="A121" s="106">
+      <c r="A121" s="104">
         <v>120</v>
       </c>
-      <c r="B121" s="110"/>
-      <c r="C121" s="110"/>
-      <c r="D121" s="110"/>
-      <c r="E121" s="112" t="s">
+      <c r="B121" s="108"/>
+      <c r="C121" s="108"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="112"/>
-      <c r="G121" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="112"/>
-      <c r="I121" s="112"/>
+      <c r="F121" s="110"/>
+      <c r="G121" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="110"/>
+      <c r="I121" s="110"/>
     </row>
     <row r="122" hidden="1" spans="1:9">
-      <c r="A122" s="106">
+      <c r="A122" s="104">
         <v>121</v>
       </c>
-      <c r="B122" s="110"/>
-      <c r="C122" s="110"/>
-      <c r="D122" s="110"/>
-      <c r="E122" s="112" t="s">
+      <c r="B122" s="108"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="112"/>
-      <c r="G122" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="112"/>
-      <c r="I122" s="112"/>
+      <c r="F122" s="110"/>
+      <c r="G122" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="110"/>
+      <c r="I122" s="110"/>
     </row>
     <row r="123" hidden="1" spans="1:9">
-      <c r="A123" s="106">
+      <c r="A123" s="104">
         <v>122</v>
       </c>
-      <c r="B123" s="110"/>
-      <c r="C123" s="110"/>
-      <c r="D123" s="115" t="s">
+      <c r="B123" s="108"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="E123" s="112" t="s">
+      <c r="E123" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="F123" s="112"/>
-      <c r="G123" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" s="112"/>
-      <c r="I123" s="112"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="110"/>
+      <c r="I123" s="110"/>
     </row>
     <row r="124" hidden="1" spans="1:9">
-      <c r="A124" s="106">
+      <c r="A124" s="104">
         <v>123</v>
       </c>
-      <c r="B124" s="110"/>
-      <c r="C124" s="110"/>
-      <c r="D124" s="110"/>
-      <c r="E124" s="112" t="s">
+      <c r="B124" s="108"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="F124" s="112"/>
-      <c r="G124" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
+      <c r="F124" s="110"/>
+      <c r="G124" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="110"/>
+      <c r="I124" s="110"/>
     </row>
     <row r="125" hidden="1" spans="1:9">
-      <c r="A125" s="106">
+      <c r="A125" s="104">
         <v>124</v>
       </c>
-      <c r="B125" s="110"/>
-      <c r="C125" s="110"/>
-      <c r="D125" s="110"/>
-      <c r="E125" s="112" t="s">
+      <c r="B125" s="108"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="110"/>
+      <c r="I125" s="110"/>
     </row>
     <row r="126" hidden="1" spans="1:9">
-      <c r="A126" s="106">
+      <c r="A126" s="104">
         <v>125</v>
       </c>
-      <c r="B126" s="110"/>
-      <c r="C126" s="110"/>
-      <c r="D126" s="110"/>
-      <c r="E126" s="112" t="s">
+      <c r="B126" s="108"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
+      <c r="F126" s="110"/>
+      <c r="G126" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="110"/>
+      <c r="I126" s="110"/>
     </row>
     <row r="127" hidden="1" spans="1:9">
-      <c r="A127" s="106">
+      <c r="A127" s="104">
         <v>126</v>
       </c>
-      <c r="B127" s="110"/>
-      <c r="C127" s="110"/>
-      <c r="D127" s="110"/>
-      <c r="E127" s="112" t="s">
+      <c r="B127" s="108"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="108"/>
+      <c r="E127" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
+      <c r="F127" s="110"/>
+      <c r="G127" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="110"/>
+      <c r="I127" s="110"/>
     </row>
     <row r="128" hidden="1" spans="1:9">
-      <c r="A128" s="106">
+      <c r="A128" s="104">
         <v>127</v>
       </c>
-      <c r="B128" s="110"/>
-      <c r="C128" s="110"/>
-      <c r="D128" s="110"/>
-      <c r="E128" s="112" t="s">
+      <c r="B128" s="108"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="F128" s="112"/>
-      <c r="G128" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="112"/>
-      <c r="I128" s="112"/>
+      <c r="F128" s="110"/>
+      <c r="G128" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="110"/>
+      <c r="I128" s="110"/>
     </row>
     <row r="129" hidden="1" spans="1:9">
-      <c r="A129" s="106">
+      <c r="A129" s="104">
         <v>128</v>
       </c>
-      <c r="B129" s="110"/>
-      <c r="C129" s="110"/>
-      <c r="D129" s="110"/>
-      <c r="E129" s="112" t="s">
+      <c r="B129" s="108"/>
+      <c r="C129" s="108"/>
+      <c r="D129" s="108"/>
+      <c r="E129" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="F129" s="112"/>
-      <c r="G129" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="112"/>
-      <c r="I129" s="112"/>
+      <c r="F129" s="110"/>
+      <c r="G129" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="110"/>
+      <c r="I129" s="110"/>
     </row>
     <row r="130" ht="28.5" hidden="1" customHeight="1" spans="1:7">
-      <c r="A130" s="106">
+      <c r="A130" s="104">
         <v>129</v>
       </c>
-      <c r="B130" s="116" t="s">
+      <c r="B130" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="117" t="s">
+      <c r="C130" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="D130" s="117" t="s">
+      <c r="D130" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="E130" s="106" t="s">
+      <c r="E130" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="G130" s="106" t="s">
+      <c r="G130" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="131" hidden="1" spans="1:7">
-      <c r="A131" s="106">
+      <c r="A131" s="104">
         <v>130</v>
       </c>
-      <c r="B131" s="116"/>
-      <c r="C131" s="117"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="106" t="s">
+      <c r="B131" s="114"/>
+      <c r="C131" s="115"/>
+      <c r="D131" s="115"/>
+      <c r="E131" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="G131" s="106" t="s">
+      <c r="G131" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="132" hidden="1" spans="1:7">
-      <c r="A132" s="106">
+      <c r="A132" s="104">
         <v>131</v>
       </c>
-      <c r="B132" s="116"/>
-      <c r="C132" s="117"/>
-      <c r="D132" s="117"/>
-      <c r="E132" s="106" t="s">
+      <c r="B132" s="114"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="115"/>
+      <c r="E132" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="G132" s="106" t="s">
+      <c r="G132" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="133" hidden="1" spans="1:7">
-      <c r="A133" s="106">
+      <c r="A133" s="104">
         <v>132</v>
       </c>
-      <c r="B133" s="116"/>
-      <c r="C133" s="117"/>
-      <c r="D133" s="117"/>
-      <c r="E133" s="106" t="s">
+      <c r="B133" s="114"/>
+      <c r="C133" s="115"/>
+      <c r="D133" s="115"/>
+      <c r="E133" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="G133" s="106" t="s">
+      <c r="G133" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="134" hidden="1" spans="1:7">
-      <c r="A134" s="106">
+      <c r="A134" s="104">
         <v>133</v>
       </c>
-      <c r="B134" s="116"/>
-      <c r="C134" s="117"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="106" t="s">
+      <c r="B134" s="114"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="115"/>
+      <c r="E134" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="G134" s="106" t="s">
+      <c r="G134" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" hidden="1" spans="1:7">
-      <c r="A135" s="106">
+      <c r="A135" s="104">
         <v>134</v>
       </c>
-      <c r="B135" s="116"/>
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="106" t="s">
+      <c r="B135" s="114"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="115"/>
+      <c r="E135" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="G135" s="106" t="s">
+      <c r="G135" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="136" hidden="1" spans="1:8">
-      <c r="A136" s="106">
+      <c r="A136" s="104">
         <v>135</v>
       </c>
-      <c r="B136" s="116"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="106" t="s">
+      <c r="B136" s="114"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="G136" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="106" t="s">
+      <c r="G136" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="104" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:7">
-      <c r="A137" s="106">
+      <c r="A137" s="104">
         <v>136</v>
       </c>
-      <c r="B137" s="116"/>
-      <c r="C137" s="117"/>
-      <c r="D137" s="117"/>
-      <c r="E137" s="106" t="s">
+      <c r="B137" s="114"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="115"/>
+      <c r="E137" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="G137" s="106" t="s">
+      <c r="G137" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:7">
-      <c r="A138" s="106">
+      <c r="A138" s="104">
         <v>137</v>
       </c>
-      <c r="B138" s="116"/>
-      <c r="C138" s="117"/>
-      <c r="D138" s="117" t="s">
+      <c r="B138" s="114"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="E138" s="106" t="s">
+      <c r="E138" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="G138" s="106" t="s">
+      <c r="G138" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="139" hidden="1" spans="1:7">
-      <c r="A139" s="106">
+      <c r="A139" s="104">
         <v>138</v>
       </c>
-      <c r="B139" s="116"/>
-      <c r="C139" s="117"/>
-      <c r="D139" s="117"/>
-      <c r="E139" s="106" t="s">
+      <c r="B139" s="114"/>
+      <c r="C139" s="115"/>
+      <c r="D139" s="115"/>
+      <c r="E139" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="G139" s="106" t="s">
+      <c r="G139" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="140" hidden="1" spans="1:8">
-      <c r="A140" s="106">
+      <c r="A140" s="104">
         <v>139</v>
       </c>
-      <c r="B140" s="116"/>
-      <c r="C140" s="117"/>
-      <c r="D140" s="117"/>
-      <c r="E140" s="106" t="s">
+      <c r="B140" s="114"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="115"/>
+      <c r="E140" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="G140" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" s="106" t="s">
+      <c r="G140" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="104" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141" hidden="1" spans="1:7">
-      <c r="A141" s="106">
+      <c r="A141" s="104">
         <v>140</v>
       </c>
-      <c r="B141" s="116"/>
-      <c r="C141" s="117"/>
-      <c r="D141" s="117"/>
-      <c r="E141" s="106" t="s">
+      <c r="B141" s="114"/>
+      <c r="C141" s="115"/>
+      <c r="D141" s="115"/>
+      <c r="E141" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="G141" s="106" t="s">
+      <c r="G141" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="142" hidden="1" spans="1:7">
-      <c r="A142" s="106">
+      <c r="A142" s="104">
         <v>141</v>
       </c>
-      <c r="B142" s="116"/>
-      <c r="C142" s="117"/>
-      <c r="D142" s="117"/>
-      <c r="E142" s="106" t="s">
+      <c r="B142" s="114"/>
+      <c r="C142" s="115"/>
+      <c r="D142" s="115"/>
+      <c r="E142" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="G142" s="106" t="s">
+      <c r="G142" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="143" hidden="1" spans="1:7">
-      <c r="A143" s="106">
+      <c r="A143" s="104">
         <v>142</v>
       </c>
-      <c r="B143" s="116"/>
-      <c r="C143" s="117"/>
-      <c r="D143" s="117"/>
-      <c r="E143" s="106" t="s">
+      <c r="B143" s="114"/>
+      <c r="C143" s="115"/>
+      <c r="D143" s="115"/>
+      <c r="E143" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="G143" s="106" t="s">
+      <c r="G143" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="144" hidden="1" spans="1:7">
-      <c r="A144" s="106">
+      <c r="A144" s="104">
         <v>143</v>
       </c>
-      <c r="B144" s="116"/>
-      <c r="C144" s="117"/>
-      <c r="D144" s="117"/>
-      <c r="E144" s="106" t="s">
+      <c r="B144" s="114"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="115"/>
+      <c r="E144" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="G144" s="106" t="s">
+      <c r="G144" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:8">
-      <c r="A145" s="106">
+      <c r="A145" s="104">
         <v>144</v>
       </c>
-      <c r="B145" s="116"/>
-      <c r="C145" s="117" t="s">
+      <c r="B145" s="114"/>
+      <c r="C145" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="D145" s="117" t="s">
+      <c r="D145" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="E145" s="118" t="s">
+      <c r="E145" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="G145" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="106" t="s">
+      <c r="G145" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="146" hidden="1" spans="1:8">
-      <c r="A146" s="106">
+      <c r="A146" s="104">
         <v>145</v>
       </c>
-      <c r="B146" s="116"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
-      <c r="E146" s="106" t="s">
+      <c r="B146" s="114"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="115"/>
+      <c r="E146" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="G146" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="106" t="s">
+      <c r="G146" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="147" hidden="1" spans="1:8">
-      <c r="A147" s="106">
+      <c r="A147" s="104">
         <v>146</v>
       </c>
-      <c r="B147" s="116"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="117"/>
-      <c r="E147" s="106" t="s">
+      <c r="B147" s="114"/>
+      <c r="C147" s="115"/>
+      <c r="D147" s="115"/>
+      <c r="E147" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="G147" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="106" t="s">
+      <c r="G147" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:8">
-      <c r="A148" s="106">
+      <c r="A148" s="104">
         <v>147</v>
       </c>
-      <c r="B148" s="116"/>
-      <c r="C148" s="117"/>
-      <c r="D148" s="117"/>
-      <c r="E148" s="106" t="s">
+      <c r="B148" s="114"/>
+      <c r="C148" s="115"/>
+      <c r="D148" s="115"/>
+      <c r="E148" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="G148" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="106" t="s">
+      <c r="G148" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:8">
-      <c r="A149" s="106">
+      <c r="A149" s="104">
         <v>148</v>
       </c>
-      <c r="B149" s="116"/>
-      <c r="C149" s="117"/>
-      <c r="D149" s="117"/>
-      <c r="E149" s="106" t="s">
+      <c r="B149" s="114"/>
+      <c r="C149" s="115"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="G149" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" s="106" t="s">
+      <c r="G149" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="150" hidden="1" spans="1:8">
-      <c r="A150" s="106">
+      <c r="A150" s="104">
         <v>149</v>
       </c>
-      <c r="B150" s="116"/>
-      <c r="C150" s="117"/>
-      <c r="D150" s="117" t="s">
+      <c r="B150" s="114"/>
+      <c r="C150" s="115"/>
+      <c r="D150" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="E150" s="106" t="s">
+      <c r="E150" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="G150" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" s="106" t="s">
+      <c r="G150" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="151" hidden="1" spans="1:8">
-      <c r="A151" s="106">
+      <c r="A151" s="104">
         <v>150</v>
       </c>
-      <c r="B151" s="116"/>
-      <c r="C151" s="117"/>
-      <c r="D151" s="117"/>
-      <c r="E151" s="106" t="s">
+      <c r="B151" s="114"/>
+      <c r="C151" s="115"/>
+      <c r="D151" s="115"/>
+      <c r="E151" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="G151" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" s="106" t="s">
+      <c r="G151" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:8">
-      <c r="A152" s="106">
+      <c r="A152" s="104">
         <v>151</v>
       </c>
-      <c r="B152" s="116"/>
-      <c r="C152" s="117"/>
-      <c r="D152" s="117"/>
-      <c r="E152" s="106" t="s">
+      <c r="B152" s="114"/>
+      <c r="C152" s="115"/>
+      <c r="D152" s="115"/>
+      <c r="E152" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="G152" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" s="106" t="s">
+      <c r="G152" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:8">
-      <c r="A153" s="106">
+      <c r="A153" s="104">
         <v>152</v>
       </c>
-      <c r="B153" s="116"/>
-      <c r="C153" s="117"/>
-      <c r="D153" s="117"/>
-      <c r="E153" s="106" t="s">
+      <c r="B153" s="114"/>
+      <c r="C153" s="115"/>
+      <c r="D153" s="115"/>
+      <c r="E153" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="G153" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" s="106" t="s">
+      <c r="G153" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:8">
-      <c r="A154" s="106">
+      <c r="A154" s="104">
         <v>153</v>
       </c>
-      <c r="B154" s="116"/>
-      <c r="C154" s="117"/>
-      <c r="D154" s="117"/>
-      <c r="E154" s="106" t="s">
+      <c r="B154" s="114"/>
+      <c r="C154" s="115"/>
+      <c r="D154" s="115"/>
+      <c r="E154" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="G154" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" s="106" t="s">
+      <c r="G154" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:8">
-      <c r="A155" s="106">
+      <c r="A155" s="104">
         <v>154</v>
       </c>
-      <c r="B155" s="116"/>
-      <c r="C155" s="117"/>
-      <c r="D155" s="117"/>
-      <c r="E155" s="106" t="s">
+      <c r="B155" s="114"/>
+      <c r="C155" s="115"/>
+      <c r="D155" s="115"/>
+      <c r="E155" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="G155" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="106" t="s">
+      <c r="G155" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:7">
-      <c r="A156" s="106">
+      <c r="A156" s="104">
         <v>155</v>
       </c>
-      <c r="B156" s="116"/>
-      <c r="C156" s="117"/>
-      <c r="D156" s="117" t="s">
+      <c r="B156" s="114"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="E156" s="106" t="s">
+      <c r="E156" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="G156" s="106" t="s">
+      <c r="G156" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:7">
-      <c r="A157" s="106">
+      <c r="A157" s="104">
         <v>156</v>
       </c>
-      <c r="B157" s="116"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="106" t="s">
+      <c r="B157" s="114"/>
+      <c r="C157" s="115"/>
+      <c r="D157" s="115"/>
+      <c r="E157" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="G157" s="106" t="s">
+      <c r="G157" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="158" hidden="1" spans="1:7">
-      <c r="A158" s="106">
+      <c r="A158" s="104">
         <v>156</v>
       </c>
-      <c r="B158" s="117"/>
-      <c r="C158" s="117" t="s">
+      <c r="B158" s="115"/>
+      <c r="C158" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="D158" s="117" t="s">
+      <c r="D158" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E158" s="106" t="s">
+      <c r="E158" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="F158" s="118"/>
-      <c r="G158" s="106" t="s">
+      <c r="F158" s="116"/>
+      <c r="G158" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="159" hidden="1" spans="1:7">
-      <c r="A159" s="106">
+      <c r="A159" s="104">
         <v>156</v>
       </c>
-      <c r="B159" s="117"/>
-      <c r="C159" s="117"/>
-      <c r="D159" s="117"/>
-      <c r="E159" s="106" t="s">
+      <c r="B159" s="115"/>
+      <c r="C159" s="115"/>
+      <c r="D159" s="115"/>
+      <c r="E159" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="G159" s="106" t="s">
+      <c r="G159" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" hidden="1" spans="1:7">
-      <c r="A160" s="106">
+      <c r="A160" s="104">
         <v>156</v>
       </c>
-      <c r="B160" s="117"/>
-      <c r="C160" s="117"/>
-      <c r="D160" s="117"/>
-      <c r="E160" s="106" t="s">
+      <c r="B160" s="115"/>
+      <c r="C160" s="115"/>
+      <c r="D160" s="115"/>
+      <c r="E160" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="G160" s="106" t="s">
+      <c r="G160" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" hidden="1" spans="1:7">
-      <c r="A161" s="106">
+      <c r="A161" s="104">
         <v>156</v>
       </c>
-      <c r="B161" s="117"/>
-      <c r="C161" s="117"/>
-      <c r="D161" s="117"/>
-      <c r="E161" s="106" t="s">
+      <c r="B161" s="115"/>
+      <c r="C161" s="115"/>
+      <c r="D161" s="115"/>
+      <c r="E161" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="G161" s="106" t="s">
+      <c r="G161" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" hidden="1" spans="1:7">
-      <c r="A162" s="106">
+      <c r="A162" s="104">
         <v>156</v>
       </c>
-      <c r="B162" s="117"/>
-      <c r="C162" s="117"/>
-      <c r="D162" s="119" t="s">
+      <c r="B162" s="115"/>
+      <c r="C162" s="115"/>
+      <c r="D162" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="E162" s="106" t="s">
+      <c r="E162" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="G162" s="106" t="s">
+      <c r="G162" s="104" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6619,7 +6575,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6633,8 +6589,8 @@
     <col min="8" max="8" width="23.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="1" spans="1:8">
-      <c r="A1" s="95" t="s">
+    <row r="1" s="94" customFormat="1" spans="1:8">
+      <c r="A1" s="94" t="s">
         <v>194</v>
       </c>
       <c r="B1" s="96" t="s">
@@ -6655,7 +6611,7 @@
       <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6813,39 +6769,39 @@
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="97"/>
-      <c r="B11" s="101" t="s">
+    <row r="11" s="95" customFormat="1" spans="1:6">
+      <c r="A11" s="101"/>
+      <c r="B11" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="65" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" s="97"/>
-      <c r="B12" s="104" t="s">
+    <row r="12" s="95" customFormat="1" spans="1:6">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="65" t="s">
         <v>240</v>
       </c>
     </row>
@@ -7148,11 +7104,11 @@
     </row>
     <row r="30" customFormat="1" spans="1:6">
       <c r="A30" s="97"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
     </row>
     <row r="31" customFormat="1" spans="1:6">
       <c r="A31" s="97"/>
@@ -7187,17 +7143,17 @@
       </c>
     </row>
     <row r="34" s="57" customFormat="1" spans="1:8">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="93" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="93" t="s">
         <v>317</v>
       </c>
       <c r="H34" s="57" t="s">
@@ -7205,15 +7161,15 @@
       </c>
     </row>
     <row r="35" s="57" customFormat="1" spans="1:8">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94" t="s">
+      <c r="D35" s="93"/>
+      <c r="E35" s="93" t="s">
         <v>317</v>
       </c>
       <c r="H35" s="57" t="s">
@@ -7221,15 +7177,15 @@
       </c>
     </row>
     <row r="36" s="57" customFormat="1" spans="1:8">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="93" t="s">
         <v>320</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94" t="s">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93" t="s">
         <v>317</v>
       </c>
       <c r="H36" s="57" t="s">
@@ -7259,8 +7215,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="13.5"/>
@@ -8370,145 +8326,145 @@
       <c r="F64" s="87"/>
     </row>
     <row r="66" s="57" customFormat="1" spans="1:5">
-      <c r="A66" s="93" t="s">
+      <c r="A66" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94" t="s">
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="67" s="57" customFormat="1" spans="1:5">
-      <c r="A67" s="93"/>
-      <c r="B67" s="94" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="93" t="s">
         <v>382</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94" t="s">
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="68" s="57" customFormat="1" spans="1:5">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="93" t="s">
         <v>383</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94" t="s">
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="69" s="57" customFormat="1" spans="1:5">
-      <c r="A69" s="93"/>
-      <c r="B69" s="94" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94" t="s">
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="70" s="57" customFormat="1" spans="1:5">
-      <c r="A70" s="93"/>
-      <c r="B70" s="94" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94" t="s">
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="71" s="57" customFormat="1" spans="1:5">
-      <c r="A71" s="93"/>
-      <c r="B71" s="94" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="93" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94" t="s">
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="72" s="57" customFormat="1" spans="1:5">
-      <c r="A72" s="93"/>
-      <c r="B72" s="94" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94" t="s">
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="73" s="57" customFormat="1" spans="1:5">
-      <c r="A73" s="93"/>
-      <c r="B73" s="94" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="93" t="s">
         <v>388</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94" t="s">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="74" s="57" customFormat="1" spans="1:5">
-      <c r="A74" s="93"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="75" s="57" customFormat="1" spans="1:5">
-      <c r="A75" s="93"/>
-      <c r="B75" s="94" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94" t="s">
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="76" s="57" customFormat="1" spans="1:5">
-      <c r="A76" s="93"/>
-      <c r="B76" s="94" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="93" t="s">
         <v>390</v>
       </c>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94"/>
-      <c r="E76" s="94" t="s">
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="77" s="57" customFormat="1" spans="1:5">
-      <c r="A77" s="93"/>
-      <c r="B77" s="94" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94" t="s">
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="78" s="57" customFormat="1" spans="1:5">
-      <c r="A78" s="93"/>
-      <c r="B78" s="94" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="93" t="s">
         <v>392</v>
       </c>
-      <c r="C78" s="94"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="94" t="s">
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93" t="s">
         <v>317</v>
       </c>
     </row>
@@ -10657,10 +10613,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F89 F1:F88 F91:F1048576">
       <formula1>"手工录入,自动计算"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E90"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G88 G91:G1048576">
       <formula1>"输入框,下拉框,文本框"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E90"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/需求/字段(11.0).xlsx
+++ b/static/需求/字段(11.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="月报数据项" sheetId="3" r:id="rId1"/>
@@ -2055,13 +2055,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="#\ ?/?"/>
   </numFmts>
@@ -2161,15 +2161,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2183,7 +2215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2204,25 +2243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2243,25 +2274,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2273,33 +2290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2338,7 +2338,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,13 +2500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,157 +2518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,6 +2654,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2680,15 +2698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2727,15 +2736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2744,10 +2744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2756,140 +2756,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2914,13 +2914,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
@@ -2929,13 +2929,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2947,13 +2947,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,7 +2965,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2983,21 +2983,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3007,13 +3007,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3022,13 +3022,13 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3037,7 +3037,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3175,9 +3175,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3192,9 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3556,2974 +3550,2974 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.90833333333333" style="104" customWidth="1"/>
-    <col min="2" max="2" width="14.1833333333333" style="104" customWidth="1"/>
-    <col min="3" max="3" width="16.9083333333333" style="104" customWidth="1"/>
-    <col min="4" max="4" width="32.5416666666667" style="104" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="104" customWidth="1"/>
-    <col min="6" max="6" width="5.81666666666667" style="104" customWidth="1"/>
-    <col min="7" max="7" width="9.81666666666667" style="104" customWidth="1"/>
-    <col min="8" max="8" width="50.75" style="104" customWidth="1"/>
-    <col min="9" max="9" width="107.183333333333" style="104" customWidth="1"/>
-    <col min="10" max="10" width="52.8166666666667" style="104" customWidth="1"/>
-    <col min="11" max="16384" width="9.81666666666667" style="104"/>
+    <col min="1" max="1" width="3.90833333333333" style="102" customWidth="1"/>
+    <col min="2" max="2" width="14.1833333333333" style="102" customWidth="1"/>
+    <col min="3" max="3" width="16.9083333333333" style="102" customWidth="1"/>
+    <col min="4" max="4" width="32.5416666666667" style="102" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="102" customWidth="1"/>
+    <col min="6" max="6" width="5.81666666666667" style="102" customWidth="1"/>
+    <col min="7" max="7" width="9.81666666666667" style="102" customWidth="1"/>
+    <col min="8" max="8" width="50.75" style="102" customWidth="1"/>
+    <col min="9" max="9" width="107.183333333333" style="102" customWidth="1"/>
+    <col min="10" max="10" width="52.8166666666667" style="102" customWidth="1"/>
+    <col min="11" max="16384" width="9.81666666666667" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:9">
-      <c r="A2" s="104">
+      <c r="A2" s="102">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="110" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="104">
+      <c r="A3" s="102">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="110" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="102" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="104">
+      <c r="A4" s="102">
         <v>3</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="110" t="s">
+      <c r="F4" s="108"/>
+      <c r="G4" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="108" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:9">
-      <c r="A5" s="104">
+      <c r="A5" s="102">
         <v>4</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="110" t="s">
+      <c r="F5" s="108"/>
+      <c r="G5" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="110" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="104">
+      <c r="A6" s="102">
         <v>5</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="110" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" ht="67.5" spans="1:9">
-      <c r="A7" s="104">
+      <c r="A7" s="102">
         <v>6</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="110" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="110" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="110" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="104">
+      <c r="A8" s="102">
         <v>7</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="110" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="104">
+      <c r="A9" s="102">
         <v>8</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="110" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="110" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="110"/>
+      <c r="I9" s="108"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="104">
+      <c r="A10" s="102">
         <v>9</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="110" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="104">
+      <c r="A11" s="102">
         <v>10</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="110" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="110" t="s">
+      <c r="F11" s="108"/>
+      <c r="G11" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="110"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="104">
+      <c r="A12" s="102">
         <v>11</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="110" t="s">
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104">
-        <v>12</v>
-      </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108" t="s">
+      <c r="A13" s="102">
+        <v>12</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="110" t="s">
+      <c r="F13" s="108"/>
+      <c r="G13" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="110"/>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="104">
+      <c r="A14" s="102">
         <v>13</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="110" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="110" t="s">
+      <c r="F14" s="108"/>
+      <c r="G14" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="110"/>
+      <c r="I14" s="108"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="104">
+      <c r="A15" s="102">
         <v>14</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="110" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" hidden="1" spans="1:9">
-      <c r="A16" s="104">
+      <c r="A16" s="102">
         <v>15</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
     </row>
     <row r="17" hidden="1" spans="1:9">
-      <c r="A17" s="104">
+      <c r="A17" s="102">
         <v>16</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="110" t="s">
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
     </row>
     <row r="18" hidden="1" spans="1:9">
-      <c r="A18" s="104">
+      <c r="A18" s="102">
         <v>17</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="110" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
     </row>
     <row r="19" hidden="1" spans="1:9">
-      <c r="A19" s="104">
+      <c r="A19" s="102">
         <v>18</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="110" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
     </row>
     <row r="20" hidden="1" spans="1:9">
-      <c r="A20" s="104">
+      <c r="A20" s="102">
         <v>19</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="110" t="s">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
     </row>
     <row r="21" hidden="1" spans="1:9">
-      <c r="A21" s="104">
+      <c r="A21" s="102">
         <v>20</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="110" t="s">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="104">
+      <c r="A22" s="102">
         <v>21</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="110" t="s">
+      <c r="F22" s="108"/>
+      <c r="G22" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="110"/>
+      <c r="I22" s="108"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="104">
+      <c r="A23" s="102">
         <v>22</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="110" t="s">
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="110" t="s">
+      <c r="F23" s="108"/>
+      <c r="G23" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="110"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="104">
+      <c r="A24" s="102">
         <v>23</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="110" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="110" t="s">
+      <c r="F24" s="108"/>
+      <c r="G24" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="110"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="104">
+      <c r="A25" s="102">
         <v>24</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="110" t="s">
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="104">
+      <c r="A26" s="102">
         <v>25</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="110" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="110" t="s">
+      <c r="F26" s="108"/>
+      <c r="G26" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="110"/>
+      <c r="I26" s="108"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="104">
+      <c r="A27" s="102">
         <v>26</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="110" t="s">
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="110" t="s">
+      <c r="F27" s="108"/>
+      <c r="G27" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="110"/>
+      <c r="I27" s="108"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="104">
+      <c r="A28" s="102">
         <v>27</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="110" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="110" t="s">
+      <c r="F28" s="108"/>
+      <c r="G28" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="110"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="104">
+      <c r="A29" s="102">
         <v>28</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="110" t="s">
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="104">
+      <c r="A30" s="102">
         <v>29</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="110" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="110" t="s">
+      <c r="F30" s="108"/>
+      <c r="G30" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="110"/>
+      <c r="I30" s="108"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="104">
+      <c r="A31" s="102">
         <v>30</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="110" t="s">
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="110" t="s">
+      <c r="F31" s="108"/>
+      <c r="G31" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="110"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="104">
+      <c r="A32" s="102">
         <v>31</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="110" t="s">
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="110" t="s">
+      <c r="F32" s="108"/>
+      <c r="G32" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="110"/>
+      <c r="I32" s="108"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="104">
+      <c r="A33" s="102">
         <v>32</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="110" t="s">
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="104">
+      <c r="A34" s="102">
         <v>33</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="110" t="s">
+      <c r="F34" s="108"/>
+      <c r="G34" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="110"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="104">
+      <c r="A35" s="102">
         <v>34</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="110" t="s">
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="110" t="s">
+      <c r="F35" s="108"/>
+      <c r="G35" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="110"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="104">
+      <c r="A36" s="102">
         <v>35</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="110" t="s">
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="110" t="s">
+      <c r="F36" s="108"/>
+      <c r="G36" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="110"/>
+      <c r="I36" s="108"/>
     </row>
     <row r="37" hidden="1" spans="1:9">
-      <c r="A37" s="104">
+      <c r="A37" s="102">
         <v>36</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="110" t="s">
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="104">
+      <c r="A38" s="102">
         <v>37</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="110" t="s">
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="110" t="s">
+      <c r="F38" s="108"/>
+      <c r="G38" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="110"/>
+      <c r="I38" s="108"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="104">
+      <c r="A39" s="102">
         <v>38</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="110" t="s">
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="110" t="s">
+      <c r="F39" s="108"/>
+      <c r="G39" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="110"/>
+      <c r="I39" s="108"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="104">
+      <c r="A40" s="102">
         <v>39</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="110" t="s">
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="110" t="s">
+      <c r="F40" s="108"/>
+      <c r="G40" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="110"/>
+      <c r="I40" s="108"/>
     </row>
     <row r="41" hidden="1" spans="1:9">
-      <c r="A41" s="104">
+      <c r="A41" s="102">
         <v>40</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="110" t="s">
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="104">
+      <c r="A42" s="102">
         <v>41</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="110" t="s">
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="110" t="s">
+      <c r="F42" s="108"/>
+      <c r="G42" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="110"/>
+      <c r="I42" s="108"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="104">
+      <c r="A43" s="102">
         <v>42</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="110" t="s">
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="110" t="s">
+      <c r="F43" s="108"/>
+      <c r="G43" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="110"/>
+      <c r="I43" s="108"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="104">
+      <c r="A44" s="102">
         <v>43</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="110" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="110" t="s">
+      <c r="F44" s="108"/>
+      <c r="G44" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="110"/>
+      <c r="I44" s="108"/>
     </row>
     <row r="45" hidden="1" spans="1:9">
-      <c r="A45" s="104">
+      <c r="A45" s="102">
         <v>44</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="110" t="s">
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="104">
+      <c r="A46" s="102">
         <v>45</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108" t="s">
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="110" t="s">
+      <c r="E46" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="110" t="s">
+      <c r="F46" s="108"/>
+      <c r="G46" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="I46" s="110"/>
+      <c r="I46" s="108"/>
     </row>
     <row r="47" ht="17.25" hidden="1" spans="1:9">
-      <c r="A47" s="104">
+      <c r="A47" s="102">
         <v>46</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="111" t="s">
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="110" t="s">
+      <c r="F47" s="108"/>
+      <c r="G47" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="110"/>
+      <c r="I47" s="108"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="104">
+      <c r="A48" s="102">
         <v>47</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="110" t="s">
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="110" t="s">
+      <c r="F48" s="108"/>
+      <c r="G48" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="110"/>
+      <c r="I48" s="108"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="104">
+      <c r="A49" s="102">
         <v>48</v>
       </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="110" t="s">
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="104">
+      <c r="A50" s="102">
         <v>49</v>
       </c>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108" t="s">
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="110" t="s">
+      <c r="E50" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="110" t="s">
+      <c r="F50" s="108"/>
+      <c r="G50" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="110"/>
+      <c r="I50" s="108"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="104">
+      <c r="A51" s="102">
         <v>50</v>
       </c>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="110" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="110" t="s">
+      <c r="F51" s="108"/>
+      <c r="G51" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="I51" s="110"/>
+      <c r="I51" s="108"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="104">
+      <c r="A52" s="102">
         <v>51</v>
       </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="110" t="s">
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="110" t="s">
+      <c r="F52" s="108"/>
+      <c r="G52" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="I52" s="110"/>
+      <c r="I52" s="108"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="104">
+      <c r="A53" s="102">
         <v>52</v>
       </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="110" t="s">
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="110" t="s">
+      <c r="F53" s="108"/>
+      <c r="G53" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="110"/>
+      <c r="I53" s="108"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="104">
+      <c r="A54" s="102">
         <v>53</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="110" t="s">
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="110" t="s">
+      <c r="F54" s="108"/>
+      <c r="G54" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="I54" s="110"/>
+      <c r="I54" s="108"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="104">
+      <c r="A55" s="102">
         <v>54</v>
       </c>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="110" t="s">
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="110" t="s">
+      <c r="F55" s="108"/>
+      <c r="G55" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="110"/>
-      <c r="J55" s="104" t="s">
+      <c r="I55" s="108"/>
+      <c r="J55" s="102" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="104">
+      <c r="A56" s="102">
         <v>55</v>
       </c>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="110" t="s">
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
     </row>
     <row r="57" hidden="1" spans="1:9">
-      <c r="A57" s="104">
+      <c r="A57" s="102">
         <v>56</v>
       </c>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108" t="s">
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="110" t="s">
+      <c r="E57" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="110" t="s">
+      <c r="F57" s="108"/>
+      <c r="G57" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="I57" s="110"/>
+      <c r="I57" s="108"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="104">
+      <c r="A58" s="102">
         <v>57</v>
       </c>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="110" t="s">
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="110" t="s">
+      <c r="F58" s="108"/>
+      <c r="G58" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="110"/>
+      <c r="I58" s="108"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="104">
+      <c r="A59" s="102">
         <v>58</v>
       </c>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="110" t="s">
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="110" t="s">
+      <c r="F59" s="108"/>
+      <c r="G59" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="I59" s="110"/>
+      <c r="I59" s="108"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="104">
+      <c r="A60" s="102">
         <v>59</v>
       </c>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="110" t="s">
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
     </row>
     <row r="61" hidden="1" spans="1:9">
-      <c r="A61" s="104">
+      <c r="A61" s="102">
         <v>60</v>
       </c>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="110" t="s">
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="110"/>
-      <c r="G61" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="110" t="s">
+      <c r="F61" s="108"/>
+      <c r="G61" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="I61" s="110"/>
+      <c r="I61" s="108"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="104">
+      <c r="A62" s="102">
         <v>61</v>
       </c>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="110" t="s">
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="110" t="s">
+      <c r="F62" s="108"/>
+      <c r="G62" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="I62" s="110"/>
+      <c r="I62" s="108"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="104">
+      <c r="A63" s="102">
         <v>62</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="110" t="s">
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="110"/>
-      <c r="G63" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="110" t="s">
+      <c r="F63" s="108"/>
+      <c r="G63" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="I63" s="110"/>
+      <c r="I63" s="108"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="104">
+      <c r="A64" s="102">
         <v>63</v>
       </c>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="110" t="s">
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
     </row>
     <row r="65" hidden="1" spans="1:9">
-      <c r="A65" s="104">
+      <c r="A65" s="102">
         <v>64</v>
       </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="110" t="s">
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="110"/>
-      <c r="G65" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="110" t="s">
+      <c r="F65" s="108"/>
+      <c r="G65" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="I65" s="110"/>
+      <c r="I65" s="108"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="104">
+      <c r="A66" s="102">
         <v>65</v>
       </c>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="110" t="s">
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="110" t="s">
+      <c r="F66" s="108"/>
+      <c r="G66" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="110"/>
+      <c r="I66" s="108"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="104">
+      <c r="A67" s="102">
         <v>66</v>
       </c>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="110" t="s">
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="110" t="s">
+      <c r="F67" s="108"/>
+      <c r="G67" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="110"/>
+      <c r="I67" s="108"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="104">
+      <c r="A68" s="102">
         <v>67</v>
       </c>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="110" t="s">
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="110"/>
-      <c r="I68" s="110"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="104">
+      <c r="A69" s="102">
         <v>68</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108" t="s">
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="110" t="s">
+      <c r="E69" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="110" t="s">
+      <c r="F69" s="108"/>
+      <c r="G69" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="I69" s="110"/>
+      <c r="I69" s="108"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="104">
+      <c r="A70" s="102">
         <v>69</v>
       </c>
-      <c r="B70" s="108"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="108"/>
-      <c r="E70" s="110" t="s">
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="F70" s="110"/>
-      <c r="G70" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="110" t="s">
+      <c r="F70" s="108"/>
+      <c r="G70" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="I70" s="110"/>
+      <c r="I70" s="108"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="104">
+      <c r="A71" s="102">
         <v>70</v>
       </c>
-      <c r="B71" s="108"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="110" t="s">
+      <c r="B71" s="106"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="110"/>
-      <c r="G71" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="110" t="s">
+      <c r="F71" s="108"/>
+      <c r="G71" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="110"/>
+      <c r="I71" s="108"/>
     </row>
     <row r="72" hidden="1" spans="1:9">
-      <c r="A72" s="104">
+      <c r="A72" s="102">
         <v>71</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="110" t="s">
+      <c r="B72" s="106"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="F72" s="110"/>
-      <c r="G72" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="110"/>
-      <c r="I72" s="110"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="104">
+      <c r="A73" s="102">
         <v>72</v>
       </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="110" t="s">
+      <c r="B73" s="106"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="110"/>
-      <c r="G73" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="110" t="s">
+      <c r="F73" s="108"/>
+      <c r="G73" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="110"/>
+      <c r="I73" s="108"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="104">
+      <c r="A74" s="102">
         <v>73</v>
       </c>
-      <c r="B74" s="108"/>
-      <c r="C74" s="108"/>
-      <c r="D74" s="108"/>
-      <c r="E74" s="110" t="s">
+      <c r="B74" s="106"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="110"/>
-      <c r="G74" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="110" t="s">
+      <c r="F74" s="108"/>
+      <c r="G74" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="I74" s="110"/>
+      <c r="I74" s="108"/>
     </row>
     <row r="75" hidden="1" spans="1:9">
-      <c r="A75" s="104">
+      <c r="A75" s="102">
         <v>74</v>
       </c>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="110" t="s">
+      <c r="B75" s="106"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="110"/>
-      <c r="G75" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="110" t="s">
+      <c r="F75" s="108"/>
+      <c r="G75" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="I75" s="110"/>
+      <c r="I75" s="108"/>
     </row>
     <row r="76" hidden="1" spans="1:9">
-      <c r="A76" s="104">
+      <c r="A76" s="102">
         <v>75</v>
       </c>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="110" t="s">
+      <c r="B76" s="106"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="110"/>
-      <c r="G76" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="110" t="s">
+      <c r="F76" s="108"/>
+      <c r="G76" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="I76" s="110"/>
+      <c r="I76" s="108"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="104">
+      <c r="A77" s="102">
         <v>76</v>
       </c>
-      <c r="B77" s="108"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="110" t="s">
+      <c r="B77" s="106"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="110"/>
-      <c r="G77" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="110" t="s">
+      <c r="F77" s="108"/>
+      <c r="G77" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="I77" s="110"/>
+      <c r="I77" s="108"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="104">
+      <c r="A78" s="102">
         <v>77</v>
       </c>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="110" t="s">
+      <c r="B78" s="106"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="110" t="s">
+      <c r="F78" s="108"/>
+      <c r="G78" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="I78" s="110"/>
+      <c r="I78" s="108"/>
     </row>
     <row r="79" hidden="1" spans="1:9">
-      <c r="A79" s="104">
+      <c r="A79" s="102">
         <v>78</v>
       </c>
-      <c r="B79" s="108"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="108"/>
-      <c r="E79" s="110" t="s">
+      <c r="B79" s="106"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="106"/>
+      <c r="E79" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="110"/>
-      <c r="G79" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="110" t="s">
+      <c r="F79" s="108"/>
+      <c r="G79" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="110"/>
+      <c r="I79" s="108"/>
     </row>
     <row r="80" hidden="1" spans="1:9">
-      <c r="A80" s="104">
+      <c r="A80" s="102">
         <v>79</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="110" t="s">
+      <c r="B80" s="106"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="104">
+      <c r="A81" s="102">
         <v>80</v>
       </c>
-      <c r="B81" s="108"/>
-      <c r="C81" s="108" t="s">
+      <c r="B81" s="106"/>
+      <c r="C81" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="108" t="s">
+      <c r="D81" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="E81" s="110" t="s">
+      <c r="E81" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="110"/>
-      <c r="G81" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="110" t="s">
+      <c r="F81" s="108"/>
+      <c r="G81" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="110"/>
+      <c r="I81" s="108"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="104">
+      <c r="A82" s="102">
         <v>81</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="110" t="s">
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="110"/>
-      <c r="G82" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="110" t="s">
+      <c r="F82" s="108"/>
+      <c r="G82" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="I82" s="110"/>
+      <c r="I82" s="108"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="104">
+      <c r="A83" s="102">
         <v>82</v>
       </c>
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="110" t="s">
+      <c r="B83" s="106"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F83" s="110"/>
-      <c r="G83" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="110" t="s">
+      <c r="F83" s="108"/>
+      <c r="G83" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="I83" s="110"/>
+      <c r="I83" s="108"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="104">
+      <c r="A84" s="102">
         <v>83</v>
       </c>
-      <c r="B84" s="108"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="110" t="s">
+      <c r="B84" s="106"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F84" s="110"/>
-      <c r="G84" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="110"/>
-      <c r="I84" s="110"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="104">
+      <c r="A85" s="102">
         <v>84</v>
       </c>
-      <c r="B85" s="108"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="110" t="s">
+      <c r="B85" s="106"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="110"/>
-      <c r="G85" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="110" t="s">
+      <c r="F85" s="108"/>
+      <c r="G85" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="I85" s="110"/>
+      <c r="I85" s="108"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="104">
+      <c r="A86" s="102">
         <v>85</v>
       </c>
-      <c r="B86" s="108"/>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="110" t="s">
+      <c r="B86" s="106"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="110" t="s">
+      <c r="F86" s="108"/>
+      <c r="G86" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I86" s="110"/>
+      <c r="I86" s="108"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="104">
+      <c r="A87" s="102">
         <v>86</v>
       </c>
-      <c r="B87" s="108"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="110" t="s">
+      <c r="B87" s="106"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="110"/>
-      <c r="G87" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="110" t="s">
+      <c r="F87" s="108"/>
+      <c r="G87" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I87" s="110"/>
+      <c r="I87" s="108"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="104">
+      <c r="A88" s="102">
         <v>87</v>
       </c>
-      <c r="B88" s="108"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="110" t="s">
+      <c r="B88" s="106"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F88" s="110"/>
-      <c r="G88" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="110"/>
-      <c r="I88" s="110"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="108"/>
+      <c r="I88" s="108"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="104">
+      <c r="A89" s="102">
         <v>88</v>
       </c>
-      <c r="B89" s="108"/>
-      <c r="C89" s="108"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="110" t="s">
+      <c r="B89" s="106"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F89" s="110"/>
-      <c r="G89" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="110" t="s">
+      <c r="F89" s="108"/>
+      <c r="G89" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="110"/>
+      <c r="I89" s="108"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="104">
+      <c r="A90" s="102">
         <v>89</v>
       </c>
-      <c r="B90" s="108"/>
-      <c r="C90" s="108"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="110" t="s">
+      <c r="B90" s="106"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="110"/>
-      <c r="G90" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="110" t="s">
+      <c r="F90" s="108"/>
+      <c r="G90" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I90" s="110"/>
+      <c r="I90" s="108"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="104">
+      <c r="A91" s="102">
         <v>90</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="110" t="s">
+      <c r="B91" s="106"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="110" t="s">
+      <c r="F91" s="108"/>
+      <c r="G91" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I91" s="110"/>
+      <c r="I91" s="108"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="104">
+      <c r="A92" s="102">
         <v>91</v>
       </c>
-      <c r="B92" s="108"/>
-      <c r="C92" s="108"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="110" t="s">
+      <c r="B92" s="106"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F92" s="110"/>
-      <c r="G92" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="110"/>
-      <c r="I92" s="110"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="104">
+      <c r="A93" s="102">
         <v>92</v>
       </c>
-      <c r="B93" s="108"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="108" t="s">
+      <c r="B93" s="106"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="110" t="s">
+      <c r="E93" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F93" s="110"/>
-      <c r="G93" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="110" t="s">
+      <c r="F93" s="108"/>
+      <c r="G93" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="I93" s="110"/>
+      <c r="I93" s="108"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="104">
+      <c r="A94" s="102">
         <v>93</v>
       </c>
-      <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="110" t="s">
+      <c r="B94" s="106"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="110"/>
-      <c r="G94" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="110" t="s">
+      <c r="F94" s="108"/>
+      <c r="G94" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="I94" s="110"/>
+      <c r="I94" s="108"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="104">
+      <c r="A95" s="102">
         <v>94</v>
       </c>
-      <c r="B95" s="108"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="108"/>
-      <c r="E95" s="110" t="s">
+      <c r="B95" s="106"/>
+      <c r="C95" s="106"/>
+      <c r="D95" s="106"/>
+      <c r="E95" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F95" s="110"/>
-      <c r="G95" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="110" t="s">
+      <c r="F95" s="108"/>
+      <c r="G95" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="I95" s="110"/>
+      <c r="I95" s="108"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="104">
+      <c r="A96" s="102">
         <v>95</v>
       </c>
-      <c r="B96" s="108"/>
-      <c r="C96" s="108"/>
-      <c r="D96" s="108"/>
-      <c r="E96" s="110" t="s">
+      <c r="B96" s="106"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="110"/>
-      <c r="G96" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="110"/>
-      <c r="I96" s="110"/>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="104">
+      <c r="A97" s="102">
         <v>96</v>
       </c>
-      <c r="B97" s="108"/>
-      <c r="C97" s="108"/>
-      <c r="D97" s="108"/>
-      <c r="E97" s="110" t="s">
+      <c r="B97" s="106"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="110"/>
-      <c r="G97" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="110" t="s">
+      <c r="F97" s="108"/>
+      <c r="G97" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="I97" s="110"/>
+      <c r="I97" s="108"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="104">
+      <c r="A98" s="102">
         <v>97</v>
       </c>
-      <c r="B98" s="108"/>
-      <c r="C98" s="108"/>
-      <c r="D98" s="108"/>
-      <c r="E98" s="110" t="s">
+      <c r="B98" s="106"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="110"/>
-      <c r="G98" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="110" t="s">
+      <c r="F98" s="108"/>
+      <c r="G98" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I98" s="110"/>
+      <c r="I98" s="108"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="104">
+      <c r="A99" s="102">
         <v>98</v>
       </c>
-      <c r="B99" s="108"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="110" t="s">
+      <c r="B99" s="106"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="110" t="s">
+      <c r="F99" s="108"/>
+      <c r="G99" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="I99" s="110"/>
+      <c r="I99" s="108"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="104">
+      <c r="A100" s="102">
         <v>99</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="110" t="s">
+      <c r="B100" s="106"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="110"/>
-      <c r="I100" s="110"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="104">
+      <c r="A101" s="102">
         <v>100</v>
       </c>
-      <c r="B101" s="108"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="110" t="s">
+      <c r="B101" s="106"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="110"/>
-      <c r="G101" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="110" t="s">
+      <c r="F101" s="108"/>
+      <c r="G101" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="I101" s="110"/>
+      <c r="I101" s="108"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="104">
+      <c r="A102" s="102">
         <v>101</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="110" t="s">
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="110" t="s">
+      <c r="F102" s="108"/>
+      <c r="G102" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I102" s="110"/>
+      <c r="I102" s="108"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="104">
+      <c r="A103" s="102">
         <v>102</v>
       </c>
-      <c r="B103" s="108"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="110" t="s">
+      <c r="B103" s="106"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F103" s="110"/>
-      <c r="G103" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="110" t="s">
+      <c r="F103" s="108"/>
+      <c r="G103" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="I103" s="110"/>
+      <c r="I103" s="108"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="104">
+      <c r="A104" s="102">
         <v>103</v>
       </c>
-      <c r="B104" s="108"/>
-      <c r="C104" s="108"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="110" t="s">
+      <c r="B104" s="106"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="110"/>
-      <c r="G104" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="110"/>
-      <c r="I104" s="110"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
     </row>
     <row r="105" ht="17.25" spans="1:9">
-      <c r="A105" s="104">
+      <c r="A105" s="102">
         <v>104</v>
       </c>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108" t="s">
+      <c r="B105" s="106"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="E105" s="111" t="s">
+      <c r="E105" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="110"/>
-      <c r="G105" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="110" t="s">
+      <c r="F105" s="108"/>
+      <c r="G105" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="I105" s="110"/>
+      <c r="I105" s="108"/>
     </row>
     <row r="106" ht="17.25" spans="1:9">
-      <c r="A106" s="104">
+      <c r="A106" s="102">
         <v>105</v>
       </c>
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="111" t="s">
+      <c r="B106" s="106"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="F106" s="110"/>
-      <c r="G106" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="110" t="s">
+      <c r="F106" s="108"/>
+      <c r="G106" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="I106" s="110"/>
+      <c r="I106" s="108"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="104">
+      <c r="A107" s="102">
         <v>106</v>
       </c>
-      <c r="B107" s="108"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="110" t="s">
+      <c r="B107" s="106"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="110" t="s">
+      <c r="F107" s="108"/>
+      <c r="G107" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="I107" s="110"/>
+      <c r="I107" s="108"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="104">
+      <c r="A108" s="102">
         <v>107</v>
       </c>
-      <c r="B108" s="108"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="110" t="s">
+      <c r="B108" s="106"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="F108" s="110"/>
-      <c r="G108" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="110"/>
-      <c r="I108" s="110"/>
+      <c r="F108" s="108"/>
+      <c r="G108" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="108"/>
+      <c r="I108" s="108"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="104">
+      <c r="A109" s="102">
         <v>108</v>
       </c>
-      <c r="B109" s="108"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108" t="s">
+      <c r="B109" s="106"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E109" s="110" t="s">
+      <c r="E109" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F109" s="110"/>
-      <c r="G109" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="110" t="s">
+      <c r="F109" s="108"/>
+      <c r="G109" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I109" s="110"/>
+      <c r="I109" s="108"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="104">
+      <c r="A110" s="102">
         <v>109</v>
       </c>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="110" t="s">
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="F110" s="110"/>
-      <c r="G110" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="110" t="s">
+      <c r="F110" s="108"/>
+      <c r="G110" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="I110" s="110"/>
+      <c r="I110" s="108"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="104">
+      <c r="A111" s="102">
         <v>110</v>
       </c>
-      <c r="B111" s="108"/>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="110" t="s">
+      <c r="B111" s="106"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F111" s="110"/>
-      <c r="G111" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="110" t="s">
+      <c r="F111" s="108"/>
+      <c r="G111" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="I111" s="110"/>
+      <c r="I111" s="108"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="104">
+      <c r="A112" s="102">
         <v>111</v>
       </c>
-      <c r="B112" s="108"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="110" t="s">
+      <c r="B112" s="106"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F112" s="110"/>
-      <c r="G112" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="110" t="s">
+      <c r="F112" s="108"/>
+      <c r="G112" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="I112" s="110"/>
+      <c r="I112" s="108"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="104">
+      <c r="A113" s="102">
         <v>112</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="110" t="s">
+      <c r="B113" s="106"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="F113" s="110"/>
-      <c r="G113" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="110" t="s">
+      <c r="F113" s="108"/>
+      <c r="G113" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="I113" s="110"/>
+      <c r="I113" s="108"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="104">
+      <c r="A114" s="102">
         <v>113</v>
       </c>
-      <c r="B114" s="108"/>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="110" t="s">
+      <c r="B114" s="106"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F114" s="110"/>
-      <c r="G114" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="110" t="s">
+      <c r="F114" s="108"/>
+      <c r="G114" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="I114" s="110"/>
+      <c r="I114" s="108"/>
     </row>
     <row r="115" hidden="1" spans="1:9">
-      <c r="A115" s="104">
+      <c r="A115" s="102">
         <v>114</v>
       </c>
-      <c r="B115" s="108"/>
-      <c r="C115" s="108"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="110" t="s">
+      <c r="B115" s="106"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="F115" s="110"/>
-      <c r="G115" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="110"/>
-      <c r="I115" s="110"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="108"/>
+      <c r="I115" s="108"/>
     </row>
     <row r="116" hidden="1" spans="1:9">
-      <c r="A116" s="104">
+      <c r="A116" s="102">
         <v>115</v>
       </c>
-      <c r="B116" s="108"/>
-      <c r="C116" s="108" t="s">
+      <c r="B116" s="106"/>
+      <c r="C116" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="D116" s="108" t="s">
+      <c r="D116" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="E116" s="110" t="s">
+      <c r="E116" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="F116" s="110"/>
-      <c r="G116" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="110"/>
-      <c r="I116" s="110"/>
+      <c r="F116" s="108"/>
+      <c r="G116" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="108"/>
+      <c r="I116" s="108"/>
     </row>
     <row r="117" hidden="1" spans="1:9">
-      <c r="A117" s="104">
+      <c r="A117" s="102">
         <v>116</v>
       </c>
-      <c r="B117" s="108"/>
-      <c r="C117" s="108"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="110" t="s">
+      <c r="B117" s="106"/>
+      <c r="C117" s="106"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="110"/>
-      <c r="G117" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="110"/>
-      <c r="I117" s="110"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="108"/>
+      <c r="I117" s="108"/>
     </row>
     <row r="118" hidden="1" spans="1:9">
-      <c r="A118" s="104">
+      <c r="A118" s="102">
         <v>117</v>
       </c>
-      <c r="B118" s="108"/>
-      <c r="C118" s="108"/>
-      <c r="D118" s="108"/>
-      <c r="E118" s="110" t="s">
+      <c r="B118" s="106"/>
+      <c r="C118" s="106"/>
+      <c r="D118" s="106"/>
+      <c r="E118" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="110"/>
-      <c r="G118" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="110"/>
-      <c r="I118" s="110"/>
+      <c r="F118" s="108"/>
+      <c r="G118" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="108"/>
+      <c r="I118" s="108"/>
     </row>
     <row r="119" hidden="1" spans="1:9">
-      <c r="A119" s="104">
+      <c r="A119" s="102">
         <v>118</v>
       </c>
-      <c r="B119" s="108"/>
-      <c r="C119" s="108"/>
-      <c r="D119" s="108"/>
-      <c r="E119" s="110" t="s">
+      <c r="B119" s="106"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="F119" s="110"/>
-      <c r="G119" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="110"/>
-      <c r="I119" s="110"/>
+      <c r="F119" s="108"/>
+      <c r="G119" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="108"/>
+      <c r="I119" s="108"/>
     </row>
     <row r="120" hidden="1" spans="1:9">
-      <c r="A120" s="104">
+      <c r="A120" s="102">
         <v>119</v>
       </c>
-      <c r="B120" s="108"/>
-      <c r="C120" s="108"/>
-      <c r="D120" s="108"/>
-      <c r="E120" s="110" t="s">
+      <c r="B120" s="106"/>
+      <c r="C120" s="106"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="110"/>
-      <c r="G120" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="110"/>
-      <c r="I120" s="110"/>
+      <c r="F120" s="108"/>
+      <c r="G120" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="108"/>
+      <c r="I120" s="108"/>
     </row>
     <row r="121" hidden="1" spans="1:9">
-      <c r="A121" s="104">
+      <c r="A121" s="102">
         <v>120</v>
       </c>
-      <c r="B121" s="108"/>
-      <c r="C121" s="108"/>
-      <c r="D121" s="108"/>
-      <c r="E121" s="110" t="s">
+      <c r="B121" s="106"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="106"/>
+      <c r="E121" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="110"/>
-      <c r="G121" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="110"/>
-      <c r="I121" s="110"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="108"/>
+      <c r="I121" s="108"/>
     </row>
     <row r="122" hidden="1" spans="1:9">
-      <c r="A122" s="104">
+      <c r="A122" s="102">
         <v>121</v>
       </c>
-      <c r="B122" s="108"/>
-      <c r="C122" s="108"/>
-      <c r="D122" s="108"/>
-      <c r="E122" s="110" t="s">
+      <c r="B122" s="106"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="110"/>
-      <c r="G122" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="110"/>
-      <c r="I122" s="110"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="108"/>
+      <c r="I122" s="108"/>
     </row>
     <row r="123" hidden="1" spans="1:9">
-      <c r="A123" s="104">
+      <c r="A123" s="102">
         <v>122</v>
       </c>
-      <c r="B123" s="108"/>
-      <c r="C123" s="108"/>
-      <c r="D123" s="113" t="s">
+      <c r="B123" s="106"/>
+      <c r="C123" s="106"/>
+      <c r="D123" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="E123" s="110" t="s">
+      <c r="E123" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="F123" s="110"/>
-      <c r="G123" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" s="110"/>
-      <c r="I123" s="110"/>
+      <c r="F123" s="108"/>
+      <c r="G123" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="108"/>
+      <c r="I123" s="108"/>
     </row>
     <row r="124" hidden="1" spans="1:9">
-      <c r="A124" s="104">
+      <c r="A124" s="102">
         <v>123</v>
       </c>
-      <c r="B124" s="108"/>
-      <c r="C124" s="108"/>
-      <c r="D124" s="108"/>
-      <c r="E124" s="110" t="s">
+      <c r="B124" s="106"/>
+      <c r="C124" s="106"/>
+      <c r="D124" s="106"/>
+      <c r="E124" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="F124" s="110"/>
-      <c r="G124" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="110"/>
-      <c r="I124" s="110"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="108"/>
+      <c r="I124" s="108"/>
     </row>
     <row r="125" hidden="1" spans="1:9">
-      <c r="A125" s="104">
+      <c r="A125" s="102">
         <v>124</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="110" t="s">
+      <c r="B125" s="106"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="F125" s="110"/>
-      <c r="G125" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="110"/>
-      <c r="I125" s="110"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="108"/>
+      <c r="I125" s="108"/>
     </row>
     <row r="126" hidden="1" spans="1:9">
-      <c r="A126" s="104">
+      <c r="A126" s="102">
         <v>125</v>
       </c>
-      <c r="B126" s="108"/>
-      <c r="C126" s="108"/>
-      <c r="D126" s="108"/>
-      <c r="E126" s="110" t="s">
+      <c r="B126" s="106"/>
+      <c r="C126" s="106"/>
+      <c r="D126" s="106"/>
+      <c r="E126" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="F126" s="110"/>
-      <c r="G126" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="110"/>
-      <c r="I126" s="110"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="108"/>
+      <c r="I126" s="108"/>
     </row>
     <row r="127" hidden="1" spans="1:9">
-      <c r="A127" s="104">
+      <c r="A127" s="102">
         <v>126</v>
       </c>
-      <c r="B127" s="108"/>
-      <c r="C127" s="108"/>
-      <c r="D127" s="108"/>
-      <c r="E127" s="110" t="s">
+      <c r="B127" s="106"/>
+      <c r="C127" s="106"/>
+      <c r="D127" s="106"/>
+      <c r="E127" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="F127" s="110"/>
-      <c r="G127" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="110"/>
-      <c r="I127" s="110"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="108"/>
+      <c r="I127" s="108"/>
     </row>
     <row r="128" hidden="1" spans="1:9">
-      <c r="A128" s="104">
+      <c r="A128" s="102">
         <v>127</v>
       </c>
-      <c r="B128" s="108"/>
-      <c r="C128" s="108"/>
-      <c r="D128" s="108"/>
-      <c r="E128" s="110" t="s">
+      <c r="B128" s="106"/>
+      <c r="C128" s="106"/>
+      <c r="D128" s="106"/>
+      <c r="E128" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="F128" s="110"/>
-      <c r="G128" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="110"/>
-      <c r="I128" s="110"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="108"/>
+      <c r="I128" s="108"/>
     </row>
     <row r="129" hidden="1" spans="1:9">
-      <c r="A129" s="104">
+      <c r="A129" s="102">
         <v>128</v>
       </c>
-      <c r="B129" s="108"/>
-      <c r="C129" s="108"/>
-      <c r="D129" s="108"/>
-      <c r="E129" s="110" t="s">
+      <c r="B129" s="106"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="106"/>
+      <c r="E129" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="F129" s="110"/>
-      <c r="G129" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="110"/>
-      <c r="I129" s="110"/>
+      <c r="F129" s="108"/>
+      <c r="G129" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="108"/>
+      <c r="I129" s="108"/>
     </row>
     <row r="130" ht="28.5" hidden="1" customHeight="1" spans="1:7">
-      <c r="A130" s="104">
+      <c r="A130" s="102">
         <v>129</v>
       </c>
-      <c r="B130" s="114" t="s">
+      <c r="B130" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="115" t="s">
+      <c r="C130" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="D130" s="115" t="s">
+      <c r="D130" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="E130" s="104" t="s">
+      <c r="E130" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="G130" s="104" t="s">
+      <c r="G130" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="131" hidden="1" spans="1:7">
-      <c r="A131" s="104">
+      <c r="A131" s="102">
         <v>130</v>
       </c>
-      <c r="B131" s="114"/>
-      <c r="C131" s="115"/>
-      <c r="D131" s="115"/>
-      <c r="E131" s="104" t="s">
+      <c r="B131" s="112"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="G131" s="104" t="s">
+      <c r="G131" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="132" hidden="1" spans="1:7">
-      <c r="A132" s="104">
+      <c r="A132" s="102">
         <v>131</v>
       </c>
-      <c r="B132" s="114"/>
-      <c r="C132" s="115"/>
-      <c r="D132" s="115"/>
-      <c r="E132" s="104" t="s">
+      <c r="B132" s="112"/>
+      <c r="C132" s="113"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="G132" s="104" t="s">
+      <c r="G132" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="133" hidden="1" spans="1:7">
-      <c r="A133" s="104">
+      <c r="A133" s="102">
         <v>132</v>
       </c>
-      <c r="B133" s="114"/>
-      <c r="C133" s="115"/>
-      <c r="D133" s="115"/>
-      <c r="E133" s="104" t="s">
+      <c r="B133" s="112"/>
+      <c r="C133" s="113"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="G133" s="104" t="s">
+      <c r="G133" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="134" hidden="1" spans="1:7">
-      <c r="A134" s="104">
+      <c r="A134" s="102">
         <v>133</v>
       </c>
-      <c r="B134" s="114"/>
-      <c r="C134" s="115"/>
-      <c r="D134" s="115"/>
-      <c r="E134" s="104" t="s">
+      <c r="B134" s="112"/>
+      <c r="C134" s="113"/>
+      <c r="D134" s="113"/>
+      <c r="E134" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G134" s="104" t="s">
+      <c r="G134" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" hidden="1" spans="1:7">
-      <c r="A135" s="104">
+      <c r="A135" s="102">
         <v>134</v>
       </c>
-      <c r="B135" s="114"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="115"/>
-      <c r="E135" s="104" t="s">
+      <c r="B135" s="112"/>
+      <c r="C135" s="113"/>
+      <c r="D135" s="113"/>
+      <c r="E135" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="G135" s="104" t="s">
+      <c r="G135" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="136" hidden="1" spans="1:8">
-      <c r="A136" s="104">
+      <c r="A136" s="102">
         <v>135</v>
       </c>
-      <c r="B136" s="114"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="115"/>
-      <c r="E136" s="104" t="s">
+      <c r="B136" s="112"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="113"/>
+      <c r="E136" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="G136" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="104" t="s">
+      <c r="G136" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="102" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:7">
-      <c r="A137" s="104">
+      <c r="A137" s="102">
         <v>136</v>
       </c>
-      <c r="B137" s="114"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="115"/>
-      <c r="E137" s="104" t="s">
+      <c r="B137" s="112"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="113"/>
+      <c r="E137" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="G137" s="104" t="s">
+      <c r="G137" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:7">
-      <c r="A138" s="104">
+      <c r="A138" s="102">
         <v>137</v>
       </c>
-      <c r="B138" s="114"/>
-      <c r="C138" s="115"/>
-      <c r="D138" s="115" t="s">
+      <c r="B138" s="112"/>
+      <c r="C138" s="113"/>
+      <c r="D138" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="E138" s="104" t="s">
+      <c r="E138" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="G138" s="104" t="s">
+      <c r="G138" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="139" hidden="1" spans="1:7">
-      <c r="A139" s="104">
+      <c r="A139" s="102">
         <v>138</v>
       </c>
-      <c r="B139" s="114"/>
-      <c r="C139" s="115"/>
-      <c r="D139" s="115"/>
-      <c r="E139" s="104" t="s">
+      <c r="B139" s="112"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="113"/>
+      <c r="E139" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="G139" s="104" t="s">
+      <c r="G139" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="140" hidden="1" spans="1:8">
-      <c r="A140" s="104">
+      <c r="A140" s="102">
         <v>139</v>
       </c>
-      <c r="B140" s="114"/>
-      <c r="C140" s="115"/>
-      <c r="D140" s="115"/>
-      <c r="E140" s="104" t="s">
+      <c r="B140" s="112"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="113"/>
+      <c r="E140" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="G140" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" s="104" t="s">
+      <c r="G140" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="102" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141" hidden="1" spans="1:7">
-      <c r="A141" s="104">
+      <c r="A141" s="102">
         <v>140</v>
       </c>
-      <c r="B141" s="114"/>
-      <c r="C141" s="115"/>
-      <c r="D141" s="115"/>
-      <c r="E141" s="104" t="s">
+      <c r="B141" s="112"/>
+      <c r="C141" s="113"/>
+      <c r="D141" s="113"/>
+      <c r="E141" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="G141" s="104" t="s">
+      <c r="G141" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="142" hidden="1" spans="1:7">
-      <c r="A142" s="104">
+      <c r="A142" s="102">
         <v>141</v>
       </c>
-      <c r="B142" s="114"/>
-      <c r="C142" s="115"/>
-      <c r="D142" s="115"/>
-      <c r="E142" s="104" t="s">
+      <c r="B142" s="112"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="G142" s="104" t="s">
+      <c r="G142" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="143" hidden="1" spans="1:7">
-      <c r="A143" s="104">
+      <c r="A143" s="102">
         <v>142</v>
       </c>
-      <c r="B143" s="114"/>
-      <c r="C143" s="115"/>
-      <c r="D143" s="115"/>
-      <c r="E143" s="104" t="s">
+      <c r="B143" s="112"/>
+      <c r="C143" s="113"/>
+      <c r="D143" s="113"/>
+      <c r="E143" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="G143" s="104" t="s">
+      <c r="G143" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="144" hidden="1" spans="1:7">
-      <c r="A144" s="104">
+      <c r="A144" s="102">
         <v>143</v>
       </c>
-      <c r="B144" s="114"/>
-      <c r="C144" s="115"/>
-      <c r="D144" s="115"/>
-      <c r="E144" s="104" t="s">
+      <c r="B144" s="112"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="113"/>
+      <c r="E144" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="G144" s="104" t="s">
+      <c r="G144" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:8">
-      <c r="A145" s="104">
+      <c r="A145" s="102">
         <v>144</v>
       </c>
-      <c r="B145" s="114"/>
-      <c r="C145" s="115" t="s">
+      <c r="B145" s="112"/>
+      <c r="C145" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="D145" s="115" t="s">
+      <c r="D145" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="E145" s="116" t="s">
+      <c r="E145" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="G145" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="104" t="s">
+      <c r="G145" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="146" hidden="1" spans="1:8">
-      <c r="A146" s="104">
+      <c r="A146" s="102">
         <v>145</v>
       </c>
-      <c r="B146" s="114"/>
-      <c r="C146" s="115"/>
-      <c r="D146" s="115"/>
-      <c r="E146" s="104" t="s">
+      <c r="B146" s="112"/>
+      <c r="C146" s="113"/>
+      <c r="D146" s="113"/>
+      <c r="E146" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="G146" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="104" t="s">
+      <c r="G146" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="147" hidden="1" spans="1:8">
-      <c r="A147" s="104">
+      <c r="A147" s="102">
         <v>146</v>
       </c>
-      <c r="B147" s="114"/>
-      <c r="C147" s="115"/>
-      <c r="D147" s="115"/>
-      <c r="E147" s="104" t="s">
+      <c r="B147" s="112"/>
+      <c r="C147" s="113"/>
+      <c r="D147" s="113"/>
+      <c r="E147" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="G147" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="104" t="s">
+      <c r="G147" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:8">
-      <c r="A148" s="104">
+      <c r="A148" s="102">
         <v>147</v>
       </c>
-      <c r="B148" s="114"/>
-      <c r="C148" s="115"/>
-      <c r="D148" s="115"/>
-      <c r="E148" s="104" t="s">
+      <c r="B148" s="112"/>
+      <c r="C148" s="113"/>
+      <c r="D148" s="113"/>
+      <c r="E148" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="G148" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="104" t="s">
+      <c r="G148" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:8">
-      <c r="A149" s="104">
+      <c r="A149" s="102">
         <v>148</v>
       </c>
-      <c r="B149" s="114"/>
-      <c r="C149" s="115"/>
-      <c r="D149" s="115"/>
-      <c r="E149" s="104" t="s">
+      <c r="B149" s="112"/>
+      <c r="C149" s="113"/>
+      <c r="D149" s="113"/>
+      <c r="E149" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="G149" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" s="104" t="s">
+      <c r="G149" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="150" hidden="1" spans="1:8">
-      <c r="A150" s="104">
+      <c r="A150" s="102">
         <v>149</v>
       </c>
-      <c r="B150" s="114"/>
-      <c r="C150" s="115"/>
-      <c r="D150" s="115" t="s">
+      <c r="B150" s="112"/>
+      <c r="C150" s="113"/>
+      <c r="D150" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="E150" s="104" t="s">
+      <c r="E150" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="G150" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" s="104" t="s">
+      <c r="G150" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="151" hidden="1" spans="1:8">
-      <c r="A151" s="104">
+      <c r="A151" s="102">
         <v>150</v>
       </c>
-      <c r="B151" s="114"/>
-      <c r="C151" s="115"/>
-      <c r="D151" s="115"/>
-      <c r="E151" s="104" t="s">
+      <c r="B151" s="112"/>
+      <c r="C151" s="113"/>
+      <c r="D151" s="113"/>
+      <c r="E151" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="G151" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" s="104" t="s">
+      <c r="G151" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:8">
-      <c r="A152" s="104">
+      <c r="A152" s="102">
         <v>151</v>
       </c>
-      <c r="B152" s="114"/>
-      <c r="C152" s="115"/>
-      <c r="D152" s="115"/>
-      <c r="E152" s="104" t="s">
+      <c r="B152" s="112"/>
+      <c r="C152" s="113"/>
+      <c r="D152" s="113"/>
+      <c r="E152" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="G152" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" s="104" t="s">
+      <c r="G152" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:8">
-      <c r="A153" s="104">
+      <c r="A153" s="102">
         <v>152</v>
       </c>
-      <c r="B153" s="114"/>
-      <c r="C153" s="115"/>
-      <c r="D153" s="115"/>
-      <c r="E153" s="104" t="s">
+      <c r="B153" s="112"/>
+      <c r="C153" s="113"/>
+      <c r="D153" s="113"/>
+      <c r="E153" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="G153" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" s="104" t="s">
+      <c r="G153" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:8">
-      <c r="A154" s="104">
+      <c r="A154" s="102">
         <v>153</v>
       </c>
-      <c r="B154" s="114"/>
-      <c r="C154" s="115"/>
-      <c r="D154" s="115"/>
-      <c r="E154" s="104" t="s">
+      <c r="B154" s="112"/>
+      <c r="C154" s="113"/>
+      <c r="D154" s="113"/>
+      <c r="E154" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="G154" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" s="104" t="s">
+      <c r="G154" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:8">
-      <c r="A155" s="104">
+      <c r="A155" s="102">
         <v>154</v>
       </c>
-      <c r="B155" s="114"/>
-      <c r="C155" s="115"/>
-      <c r="D155" s="115"/>
-      <c r="E155" s="104" t="s">
+      <c r="B155" s="112"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G155" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="104" t="s">
+      <c r="G155" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="102" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:7">
-      <c r="A156" s="104">
+      <c r="A156" s="102">
         <v>155</v>
       </c>
-      <c r="B156" s="114"/>
-      <c r="C156" s="115"/>
-      <c r="D156" s="115" t="s">
+      <c r="B156" s="112"/>
+      <c r="C156" s="113"/>
+      <c r="D156" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="E156" s="104" t="s">
+      <c r="E156" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="G156" s="104" t="s">
+      <c r="G156" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:7">
-      <c r="A157" s="104">
+      <c r="A157" s="102">
         <v>156</v>
       </c>
-      <c r="B157" s="114"/>
-      <c r="C157" s="115"/>
-      <c r="D157" s="115"/>
-      <c r="E157" s="104" t="s">
+      <c r="B157" s="112"/>
+      <c r="C157" s="113"/>
+      <c r="D157" s="113"/>
+      <c r="E157" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="G157" s="104" t="s">
+      <c r="G157" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="158" hidden="1" spans="1:7">
-      <c r="A158" s="104">
+      <c r="A158" s="102">
         <v>156</v>
       </c>
-      <c r="B158" s="115"/>
-      <c r="C158" s="115" t="s">
+      <c r="B158" s="113"/>
+      <c r="C158" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D158" s="115" t="s">
+      <c r="D158" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E158" s="104" t="s">
+      <c r="E158" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="F158" s="116"/>
-      <c r="G158" s="104" t="s">
+      <c r="F158" s="114"/>
+      <c r="G158" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="159" hidden="1" spans="1:7">
-      <c r="A159" s="104">
+      <c r="A159" s="102">
         <v>156</v>
       </c>
-      <c r="B159" s="115"/>
-      <c r="C159" s="115"/>
-      <c r="D159" s="115"/>
-      <c r="E159" s="104" t="s">
+      <c r="B159" s="113"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="113"/>
+      <c r="E159" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="G159" s="104" t="s">
+      <c r="G159" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" hidden="1" spans="1:7">
-      <c r="A160" s="104">
+      <c r="A160" s="102">
         <v>156</v>
       </c>
-      <c r="B160" s="115"/>
-      <c r="C160" s="115"/>
-      <c r="D160" s="115"/>
-      <c r="E160" s="104" t="s">
+      <c r="B160" s="113"/>
+      <c r="C160" s="113"/>
+      <c r="D160" s="113"/>
+      <c r="E160" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="G160" s="104" t="s">
+      <c r="G160" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" hidden="1" spans="1:7">
-      <c r="A161" s="104">
+      <c r="A161" s="102">
         <v>156</v>
       </c>
-      <c r="B161" s="115"/>
-      <c r="C161" s="115"/>
-      <c r="D161" s="115"/>
-      <c r="E161" s="104" t="s">
+      <c r="B161" s="113"/>
+      <c r="C161" s="113"/>
+      <c r="D161" s="113"/>
+      <c r="E161" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="G161" s="104" t="s">
+      <c r="G161" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" hidden="1" spans="1:7">
-      <c r="A162" s="104">
+      <c r="A162" s="102">
         <v>156</v>
       </c>
-      <c r="B162" s="115"/>
-      <c r="C162" s="115"/>
-      <c r="D162" s="117" t="s">
+      <c r="B162" s="113"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="E162" s="104" t="s">
+      <c r="E162" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="G162" s="104" t="s">
+      <c r="G162" s="102" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6574,8 +6568,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6593,22 +6587,22 @@
       <c r="A1" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="94" t="s">
@@ -6616,124 +6610,124 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="98" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="98" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="98" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="97"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="58" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>227</v>
       </c>
       <c r="E8" s="58" t="s">
@@ -6744,14 +6738,14 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="97"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="58" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="99" t="s">
         <v>231</v>
       </c>
       <c r="E9" s="58" t="s">
@@ -6762,22 +6756,22 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:6">
-      <c r="A10" s="97"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
     </row>
-    <row r="11" s="95" customFormat="1" spans="1:6">
-      <c r="A11" s="101"/>
+    <row r="11" s="57" customFormat="1" spans="1:6">
+      <c r="A11" s="67"/>
       <c r="B11" s="58" t="s">
         <v>233</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="99" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="58" t="s">
@@ -6787,15 +6781,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" s="95" customFormat="1" spans="1:6">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102" t="s">
+    <row r="12" s="57" customFormat="1" spans="1:6">
+      <c r="A12" s="67"/>
+      <c r="B12" s="100" t="s">
         <v>237</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="99" t="s">
         <v>239</v>
       </c>
       <c r="E12" s="58" t="s">
@@ -6813,7 +6807,7 @@
       <c r="F13" s="58"/>
     </row>
     <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -6833,7 +6827,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
-      <c r="A15" s="97"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="58" t="s">
         <v>246</v>
       </c>
@@ -6851,7 +6845,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
-      <c r="A16" s="97"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="58" t="s">
         <v>250</v>
       </c>
@@ -6869,7 +6863,7 @@
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
-      <c r="A17" s="97"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="58" t="s">
         <v>254</v>
       </c>
@@ -6887,7 +6881,7 @@
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
-      <c r="A18" s="97"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="58" t="s">
         <v>258</v>
       </c>
@@ -6905,7 +6899,7 @@
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="97"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="58" t="s">
         <v>262</v>
       </c>
@@ -6923,7 +6917,7 @@
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
-      <c r="A20" s="97"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="58" t="s">
         <v>266</v>
       </c>
@@ -6941,7 +6935,7 @@
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
-      <c r="A21" s="97"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="58" t="s">
         <v>270</v>
       </c>
@@ -6959,14 +6953,14 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:6">
-      <c r="A22" s="97"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="58" t="s">
         <v>274</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="99" t="s">
         <v>276</v>
       </c>
       <c r="E22" s="58" t="s">
@@ -6977,14 +6971,14 @@
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
-      <c r="A23" s="97"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="58" t="s">
         <v>278</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="99" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="58" t="s">
@@ -6995,14 +6989,14 @@
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
-      <c r="A24" s="97"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="58" t="s">
         <v>282</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="99" t="s">
         <v>284</v>
       </c>
       <c r="E24" s="58" t="s">
@@ -7013,14 +7007,14 @@
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:6">
-      <c r="A25" s="97"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="58" t="s">
         <v>286</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="99" t="s">
         <v>288</v>
       </c>
       <c r="E25" s="58" t="s">
@@ -7031,87 +7025,87 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:6">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="97" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="99" t="s">
+      <c r="F26" s="98" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:6">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="98" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:6">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="98" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:6">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="96"/>
+      <c r="B29" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="98" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:6">
-      <c r="A30" s="97"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
     </row>
     <row r="31" customFormat="1" spans="1:6">
-      <c r="A31" s="97"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="58" t="s">
         <v>306</v>
       </c>
@@ -7127,7 +7121,7 @@
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:6">
-      <c r="A32" s="97"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="58" t="s">
         <v>310</v>
       </c>
@@ -7215,7 +7209,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F43" sqref="F43:F64"/>
     </sheetView>
   </sheetViews>
